--- a/teaching/traditional_assets/database/data/poland/poland_r_e_i_t.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_r_e_i_t.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="wse_hrl" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00112</v>
+        <v>0.304</v>
       </c>
       <c r="G2">
-        <v>-0.1157232704402516</v>
+        <v>0.7102649006622517</v>
       </c>
       <c r="H2">
-        <v>-0.1157232704402516</v>
+        <v>0.7102649006622517</v>
       </c>
       <c r="I2">
-        <v>-0.03522012578616352</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="J2">
-        <v>-0.03522012578616352</v>
+        <v>0.1108974104770591</v>
       </c>
       <c r="K2">
-        <v>-0.141</v>
+        <v>0.658</v>
       </c>
       <c r="L2">
-        <v>-0.08867924528301885</v>
+        <v>1.089403973509934</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,61 +641,61 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.3542713567839195</v>
+        <v>0.4061728395061728</v>
       </c>
       <c r="X2">
-        <v>0.04003979093594144</v>
+        <v>0.06075952380557385</v>
       </c>
       <c r="Y2">
-        <v>-0.394311147719861</v>
+        <v>0.345413315700599</v>
       </c>
       <c r="Z2">
-        <v>3.994974874371859</v>
+        <v>0.3728395061728395</v>
       </c>
       <c r="AA2">
-        <v>-0.1407035175879397</v>
+        <v>0.04134693575811341</v>
       </c>
       <c r="AB2">
-        <v>0.04003979093594144</v>
+        <v>0.05050715508694596</v>
       </c>
       <c r="AC2">
-        <v>-0.1807433085238812</v>
+        <v>-0.009160219328832556</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.3371886120996441</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.5227586206896552</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.3371886120996441</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.5227586206896552</v>
       </c>
       <c r="AL2">
-        <v>0.081</v>
+        <v>0.183</v>
       </c>
       <c r="AM2">
-        <v>0.081</v>
+        <v>0.181</v>
       </c>
       <c r="AO2">
-        <v>-0.691358024691358</v>
+        <v>0.3715846994535519</v>
       </c>
       <c r="AQ2">
-        <v>-0.691358024691358</v>
+        <v>0.3756906077348067</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +715,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00112</v>
+        <v>0.304</v>
       </c>
       <c r="G3">
-        <v>-0.1157232704402516</v>
+        <v>0.7102649006622517</v>
       </c>
       <c r="H3">
-        <v>-0.1157232704402516</v>
+        <v>0.7102649006622517</v>
       </c>
       <c r="I3">
-        <v>-0.03522012578616352</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="J3">
-        <v>-0.03522012578616352</v>
+        <v>0.1108974104770591</v>
       </c>
       <c r="K3">
-        <v>-0.141</v>
+        <v>0.658</v>
       </c>
       <c r="L3">
-        <v>-0.08867924528301885</v>
+        <v>1.089403973509934</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,7 +751,7 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,61 +763,8768 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.3542713567839195</v>
+        <v>0.4061728395061728</v>
       </c>
       <c r="X3">
-        <v>0.04003979093594144</v>
+        <v>0.06075952380557385</v>
       </c>
       <c r="Y3">
-        <v>-0.394311147719861</v>
+        <v>0.345413315700599</v>
       </c>
       <c r="Z3">
-        <v>3.994974874371859</v>
+        <v>0.3728395061728395</v>
       </c>
       <c r="AA3">
-        <v>-0.1407035175879397</v>
+        <v>0.04134693575811341</v>
       </c>
       <c r="AB3">
-        <v>0.04003979093594144</v>
+        <v>0.05050715508694596</v>
       </c>
       <c r="AC3">
-        <v>-0.1807433085238812</v>
+        <v>-0.009160219328832556</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.3371886120996441</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.5227586206896552</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.3371886120996441</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.5227586206896552</v>
       </c>
       <c r="AL3">
-        <v>0.081</v>
+        <v>0.183</v>
       </c>
       <c r="AM3">
-        <v>0.081</v>
+        <v>0.181</v>
       </c>
       <c r="AO3">
-        <v>-0.691358024691358</v>
+        <v>0.3715846994535519</v>
       </c>
       <c r="AQ3">
-        <v>-0.691358024691358</v>
+        <v>0.3756906077348067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hornigold Reit S.A. (WSE:HRL)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WSE:HRL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R.E.I.T.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.337188612099644</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>7.45</v>
+      </c>
+      <c r="H2">
+        <v>11.9973819633113</v>
+      </c>
+      <c r="I2">
+        <v>11.24</v>
+      </c>
+      <c r="J2">
+        <v>12.1097819633113</v>
+      </c>
+      <c r="K2">
+        <v>3.79</v>
+      </c>
+      <c r="L2">
+        <v>0.1124</v>
+      </c>
+      <c r="M2">
+        <v>0.050507155086946</v>
+      </c>
+      <c r="N2">
+        <v>0.0475474618106685</v>
+      </c>
+      <c r="O2">
+        <v>0.0303540820120706</v>
+      </c>
+      <c r="P2">
+        <v>0.188771174377224</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0607595238055739</v>
+      </c>
+      <c r="T2">
+        <v>0.0461209596635316</v>
+      </c>
+      <c r="U2">
+        <v>0.928653664067885</v>
+      </c>
+      <c r="V2">
+        <v>0.6644818408197291</v>
+      </c>
+      <c r="W2">
+        <v>-0.1452933666797753</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>7.45</v>
+      </c>
+      <c r="AB2">
+        <v>0.05541304126250898</v>
+      </c>
+      <c r="AC2">
+        <v>0.0374741753235439</v>
+      </c>
+      <c r="AD2">
+        <v>0.19</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0.003</v>
+      </c>
+      <c r="AI2">
+        <v>-0.004000000000000226</v>
+      </c>
+      <c r="AJ2">
+        <v>3.79</v>
+      </c>
+      <c r="AK2">
+        <v>3.79</v>
+      </c>
+      <c r="AL2">
+        <v>0.183</v>
+      </c>
+      <c r="AM2">
+        <v>3.79</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-3.79</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>7.45</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.003</v>
+      </c>
+      <c r="L2">
+        <v>-0.003</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-0.003</v>
+      </c>
+      <c r="O2">
+        <v>-0.00057</v>
+      </c>
+      <c r="P2">
+        <v>-0.00243</v>
+      </c>
+      <c r="Q2">
+        <v>0.0005700000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04754746181066851</v>
+      </c>
+      <c r="C3">
+        <v>11.99738196331133</v>
+      </c>
+      <c r="D3">
+        <v>12.10978196331133</v>
+      </c>
+      <c r="E3">
+        <v>-3.6776</v>
+      </c>
+      <c r="F3">
+        <v>0.1124</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7.45</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.003</v>
+      </c>
+      <c r="L3">
+        <v>-0.003</v>
+      </c>
+      <c r="M3">
+        <v>0.02064788</v>
+      </c>
+      <c r="N3">
+        <v>-0.02364788</v>
+      </c>
+      <c r="O3">
+        <v>-0.0044930972</v>
+      </c>
+      <c r="P3">
+        <v>-0.0191547828</v>
+      </c>
+      <c r="Q3">
+        <v>-0.0161547828</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04612095966353158</v>
+      </c>
+      <c r="T3">
+        <v>0.6644818408197293</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-0.02760573966915732</v>
+      </c>
+      <c r="W3">
+        <v>0.1887711743772242</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-0.1452933666797753</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04929146181066851</v>
+      </c>
+      <c r="C4">
+        <v>11.35688274443305</v>
+      </c>
+      <c r="D4">
+        <v>11.58168274443305</v>
+      </c>
+      <c r="E4">
+        <v>-3.5652</v>
+      </c>
+      <c r="F4">
+        <v>0.2248</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7.45</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.003</v>
+      </c>
+      <c r="L4">
+        <v>-0.003</v>
+      </c>
+      <c r="M4">
+        <v>0.04129576</v>
+      </c>
+      <c r="N4">
+        <v>-0.04429576</v>
+      </c>
+      <c r="O4">
+        <v>-0.0084161944</v>
+      </c>
+      <c r="P4">
+        <v>-0.0358795656</v>
+      </c>
+      <c r="Q4">
+        <v>-0.0328795656</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04649668374173088</v>
+      </c>
+      <c r="T4">
+        <v>0.6712622677668695</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-0.01380286983457866</v>
+      </c>
+      <c r="W4">
+        <v>0.1862355871886121</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-0.07264668333988777</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05103546181066851</v>
+      </c>
+      <c r="C5">
+        <v>10.76051889618522</v>
+      </c>
+      <c r="D5">
+        <v>11.09771889618522</v>
+      </c>
+      <c r="E5">
+        <v>-3.4528</v>
+      </c>
+      <c r="F5">
+        <v>0.3372</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7.45</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.003</v>
+      </c>
+      <c r="L5">
+        <v>-0.003</v>
+      </c>
+      <c r="M5">
+        <v>0.06194364</v>
+      </c>
+      <c r="N5">
+        <v>-0.06494364</v>
+      </c>
+      <c r="O5">
+        <v>-0.0123392916</v>
+      </c>
+      <c r="P5">
+        <v>-0.0526043484</v>
+      </c>
+      <c r="Q5">
+        <v>-0.0496043484</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04688015470814048</v>
+      </c>
+      <c r="T5">
+        <v>0.6781824973314764</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-0.00920191322305244</v>
+      </c>
+      <c r="W5">
+        <v>0.1853903914590747</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-0.04843112222659163</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05277946181066851</v>
+      </c>
+      <c r="C6">
+        <v>10.20297949130422</v>
+      </c>
+      <c r="D6">
+        <v>10.65257949130423</v>
+      </c>
+      <c r="E6">
+        <v>-3.3404</v>
+      </c>
+      <c r="F6">
+        <v>0.4496</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>7.45</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.003</v>
+      </c>
+      <c r="L6">
+        <v>-0.003</v>
+      </c>
+      <c r="M6">
+        <v>0.08259152</v>
+      </c>
+      <c r="N6">
+        <v>-0.08559152</v>
+      </c>
+      <c r="O6">
+        <v>-0.0162623888</v>
+      </c>
+      <c r="P6">
+        <v>-0.0693291312</v>
+      </c>
+      <c r="Q6">
+        <v>-0.0663291312</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04727161465301695</v>
+      </c>
+      <c r="T6">
+        <v>0.6852468983453459</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-0.006901434917289329</v>
+      </c>
+      <c r="W6">
+        <v>0.184967793594306</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-0.03632334166994378</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05452346181066851</v>
+      </c>
+      <c r="C7">
+        <v>9.679772846058597</v>
+      </c>
+      <c r="D7">
+        <v>10.2417728460586</v>
+      </c>
+      <c r="E7">
+        <v>-3.228</v>
+      </c>
+      <c r="F7">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7.45</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.003</v>
+      </c>
+      <c r="L7">
+        <v>-0.003</v>
+      </c>
+      <c r="M7">
+        <v>0.1032394</v>
+      </c>
+      <c r="N7">
+        <v>-0.1062394</v>
+      </c>
+      <c r="O7">
+        <v>-0.020185486</v>
+      </c>
+      <c r="P7">
+        <v>-0.08605391400000001</v>
+      </c>
+      <c r="Q7">
+        <v>-0.08305391400000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0476713158598908</v>
+      </c>
+      <c r="T7">
+        <v>0.6924600235910864</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-0.005521147933831463</v>
+      </c>
+      <c r="W7">
+        <v>0.1847142348754449</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-0.02905867333595502</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05626746181066851</v>
+      </c>
+      <c r="C8">
+        <v>9.187074419127869</v>
+      </c>
+      <c r="D8">
+        <v>9.86147441912787</v>
+      </c>
+      <c r="E8">
+        <v>-3.1156</v>
+      </c>
+      <c r="F8">
+        <v>0.6744</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7.45</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.003</v>
+      </c>
+      <c r="L8">
+        <v>-0.003</v>
+      </c>
+      <c r="M8">
+        <v>0.12388728</v>
+      </c>
+      <c r="N8">
+        <v>-0.12688728</v>
+      </c>
+      <c r="O8">
+        <v>-0.0241085832</v>
+      </c>
+      <c r="P8">
+        <v>-0.1027786968</v>
+      </c>
+      <c r="Q8">
+        <v>-0.09977869679999998</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04807952134776199</v>
+      </c>
+      <c r="T8">
+        <v>0.6998266195867362</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-0.00460095661152622</v>
+      </c>
+      <c r="W8">
+        <v>0.1845451957295374</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-0.0242155611132957</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05801146181066851</v>
+      </c>
+      <c r="C9">
+        <v>8.721607384231529</v>
+      </c>
+      <c r="D9">
+        <v>9.508407384231528</v>
+      </c>
+      <c r="E9">
+        <v>-3.0032</v>
+      </c>
+      <c r="F9">
+        <v>0.7868000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7.45</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.003</v>
+      </c>
+      <c r="L9">
+        <v>-0.003</v>
+      </c>
+      <c r="M9">
+        <v>0.14453516</v>
+      </c>
+      <c r="N9">
+        <v>-0.14753516</v>
+      </c>
+      <c r="O9">
+        <v>-0.02803168040000001</v>
+      </c>
+      <c r="P9">
+        <v>-0.1195034796</v>
+      </c>
+      <c r="Q9">
+        <v>-0.1165034796</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04849650544827556</v>
+      </c>
+      <c r="T9">
+        <v>0.7073516370016475</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-0.003943677095593902</v>
+      </c>
+      <c r="W9">
+        <v>0.1844244534824606</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-0.02075619523996797</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05975546181066852</v>
+      </c>
+      <c r="C10">
+        <v>8.280547970899322</v>
+      </c>
+      <c r="D10">
+        <v>9.179747970899323</v>
+      </c>
+      <c r="E10">
+        <v>-2.8908</v>
+      </c>
+      <c r="F10">
+        <v>0.8992</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7.45</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.003</v>
+      </c>
+      <c r="L10">
+        <v>-0.003</v>
+      </c>
+      <c r="M10">
+        <v>0.16518304</v>
+      </c>
+      <c r="N10">
+        <v>-0.16818304</v>
+      </c>
+      <c r="O10">
+        <v>-0.0319547776</v>
+      </c>
+      <c r="P10">
+        <v>-0.1362282624</v>
+      </c>
+      <c r="Q10">
+        <v>-0.1332282624</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04892255442053943</v>
+      </c>
+      <c r="T10">
+        <v>0.7150402417516654</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-0.003450717458644665</v>
+      </c>
+      <c r="W10">
+        <v>0.184333896797153</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-0.01816167083497189</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06149946181066851</v>
+      </c>
+      <c r="C11">
+        <v>7.861449780804644</v>
+      </c>
+      <c r="D11">
+        <v>8.873049780804644</v>
+      </c>
+      <c r="E11">
+        <v>-2.7784</v>
+      </c>
+      <c r="F11">
+        <v>1.0116</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>7.45</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.003</v>
+      </c>
+      <c r="L11">
+        <v>-0.003</v>
+      </c>
+      <c r="M11">
+        <v>0.18583092</v>
+      </c>
+      <c r="N11">
+        <v>-0.18883092</v>
+      </c>
+      <c r="O11">
+        <v>-0.0358778748</v>
+      </c>
+      <c r="P11">
+        <v>-0.1529530452</v>
+      </c>
+      <c r="Q11">
+        <v>-0.1499530452</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04935796710647941</v>
+      </c>
+      <c r="T11">
+        <v>0.7228978268258595</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-0.003067304407684147</v>
+      </c>
+      <c r="W11">
+        <v>0.1842634638196916</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-0.01614370740886395</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06324346181066851</v>
+      </c>
+      <c r="C12">
+        <v>7.462182785281883</v>
+      </c>
+      <c r="D12">
+        <v>8.586182785281883</v>
+      </c>
+      <c r="E12">
+        <v>-2.666</v>
+      </c>
+      <c r="F12">
+        <v>1.124</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7.45</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.003</v>
+      </c>
+      <c r="L12">
+        <v>-0.003</v>
+      </c>
+      <c r="M12">
+        <v>0.2064788</v>
+      </c>
+      <c r="N12">
+        <v>-0.2094788</v>
+      </c>
+      <c r="O12">
+        <v>-0.039800972</v>
+      </c>
+      <c r="P12">
+        <v>-0.169677828</v>
+      </c>
+      <c r="Q12">
+        <v>-0.166677828</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04980305562988474</v>
+      </c>
+      <c r="T12">
+        <v>0.7309300249017023</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-0.002760573966915732</v>
+      </c>
+      <c r="W12">
+        <v>0.1842071174377224</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-0.01452933666797751</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06498746181066851</v>
+      </c>
+      <c r="C13">
+        <v>7.080883785567321</v>
+      </c>
+      <c r="D13">
+        <v>8.317283785567321</v>
+      </c>
+      <c r="E13">
+        <v>-2.5536</v>
+      </c>
+      <c r="F13">
+        <v>1.2364</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>7.45</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.003</v>
+      </c>
+      <c r="L13">
+        <v>-0.003</v>
+      </c>
+      <c r="M13">
+        <v>0.22712668</v>
+      </c>
+      <c r="N13">
+        <v>-0.23012668</v>
+      </c>
+      <c r="O13">
+        <v>-0.0437240692</v>
+      </c>
+      <c r="P13">
+        <v>-0.1864026108</v>
+      </c>
+      <c r="Q13">
+        <v>-0.1834026108</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05025814614258008</v>
+      </c>
+      <c r="T13">
+        <v>0.7391427218107102</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.00250961269719612</v>
+      </c>
+      <c r="W13">
+        <v>0.1841610158524749</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-0.01320848787997964</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06673146181066851</v>
+      </c>
+      <c r="C14">
+        <v>6.715915899173477</v>
+      </c>
+      <c r="D14">
+        <v>8.064715899173477</v>
+      </c>
+      <c r="E14">
+        <v>-2.4412</v>
+      </c>
+      <c r="F14">
+        <v>1.3488</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.45</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.003</v>
+      </c>
+      <c r="L14">
+        <v>-0.003</v>
+      </c>
+      <c r="M14">
+        <v>0.24777456</v>
+      </c>
+      <c r="N14">
+        <v>-0.25077456</v>
+      </c>
+      <c r="O14">
+        <v>-0.0476471664</v>
+      </c>
+      <c r="P14">
+        <v>-0.2031273936</v>
+      </c>
+      <c r="Q14">
+        <v>-0.2001273936</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05072357962147303</v>
+      </c>
+      <c r="T14">
+        <v>0.7475420709221956</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.00230047830576311</v>
+      </c>
+      <c r="W14">
+        <v>0.1841225978647687</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-0.01210778055664785</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06847546181066852</v>
+      </c>
+      <c r="C15">
+        <v>6.365835210289981</v>
+      </c>
+      <c r="D15">
+        <v>7.827035210289981</v>
+      </c>
+      <c r="E15">
+        <v>-2.3288</v>
+      </c>
+      <c r="F15">
+        <v>1.4612</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.45</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.003</v>
+      </c>
+      <c r="L15">
+        <v>-0.003</v>
+      </c>
+      <c r="M15">
+        <v>0.26842244</v>
+      </c>
+      <c r="N15">
+        <v>-0.27142244</v>
+      </c>
+      <c r="O15">
+        <v>-0.05157026360000001</v>
+      </c>
+      <c r="P15">
+        <v>-0.2198521764</v>
+      </c>
+      <c r="Q15">
+        <v>-0.2168521764</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05119971272057043</v>
+      </c>
+      <c r="T15">
+        <v>0.7561345085190024</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.002123518436089024</v>
+      </c>
+      <c r="W15">
+        <v>0.1840900903367096</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-0.01117641282152126</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07021946181066852</v>
+      </c>
+      <c r="C16">
+        <v>6.029363148570696</v>
+      </c>
+      <c r="D16">
+        <v>7.602963148570696</v>
+      </c>
+      <c r="E16">
+        <v>-2.2164</v>
+      </c>
+      <c r="F16">
+        <v>1.5736</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.45</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.003</v>
+      </c>
+      <c r="L16">
+        <v>-0.003</v>
+      </c>
+      <c r="M16">
+        <v>0.28907032</v>
+      </c>
+      <c r="N16">
+        <v>-0.29207032</v>
+      </c>
+      <c r="O16">
+        <v>-0.05549336080000001</v>
+      </c>
+      <c r="P16">
+        <v>-0.2365769592</v>
+      </c>
+      <c r="Q16">
+        <v>-0.2335769592</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05168691868243752</v>
+      </c>
+      <c r="T16">
+        <v>0.7649267702459676</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.001971838547796951</v>
+      </c>
+      <c r="W16">
+        <v>0.1840622267412303</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-0.01037809761998387</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07196346181066851</v>
+      </c>
+      <c r="C17">
+        <v>5.705363480311548</v>
+      </c>
+      <c r="D17">
+        <v>7.391363480311548</v>
+      </c>
+      <c r="E17">
+        <v>-2.104</v>
+      </c>
+      <c r="F17">
+        <v>1.686</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>7.45</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.003</v>
+      </c>
+      <c r="L17">
+        <v>-0.003</v>
+      </c>
+      <c r="M17">
+        <v>0.3097182</v>
+      </c>
+      <c r="N17">
+        <v>-0.3127182</v>
+      </c>
+      <c r="O17">
+        <v>-0.059416458</v>
+      </c>
+      <c r="P17">
+        <v>-0.253301742</v>
+      </c>
+      <c r="Q17">
+        <v>-0.250301742</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05218558831399561</v>
+      </c>
+      <c r="T17">
+        <v>0.7739259087194496</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.001840382644610488</v>
+      </c>
+      <c r="W17">
+        <v>0.184038078291815</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-0.009686224445318414</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07370746181066851</v>
+      </c>
+      <c r="C18">
+        <v>5.39282303777158</v>
+      </c>
+      <c r="D18">
+        <v>7.19122303777158</v>
+      </c>
+      <c r="E18">
+        <v>-1.9916</v>
+      </c>
+      <c r="F18">
+        <v>1.7984</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7.45</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.003</v>
+      </c>
+      <c r="L18">
+        <v>-0.003</v>
+      </c>
+      <c r="M18">
+        <v>0.33036608</v>
+      </c>
+      <c r="N18">
+        <v>-0.33336608</v>
+      </c>
+      <c r="O18">
+        <v>-0.06333955520000001</v>
+      </c>
+      <c r="P18">
+        <v>-0.2700265248</v>
+      </c>
+      <c r="Q18">
+        <v>-0.2670265248</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05269613103201937</v>
+      </c>
+      <c r="T18">
+        <v>0.7831393123946809</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.001725358729322332</v>
+      </c>
+      <c r="W18">
+        <v>0.1840169483985765</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-0.009080835417486055</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.0754514618106685</v>
+      </c>
+      <c r="C19">
+        <v>5.090835496777119</v>
+      </c>
+      <c r="D19">
+        <v>7.001635496777119</v>
+      </c>
+      <c r="E19">
+        <v>-1.8792</v>
+      </c>
+      <c r="F19">
+        <v>1.9108</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>7.45</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.003</v>
+      </c>
+      <c r="L19">
+        <v>-0.003</v>
+      </c>
+      <c r="M19">
+        <v>0.3510139600000001</v>
+      </c>
+      <c r="N19">
+        <v>-0.3540139600000001</v>
+      </c>
+      <c r="O19">
+        <v>-0.06726265240000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.2867513076000001</v>
+      </c>
+      <c r="Q19">
+        <v>-0.2837513076000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05321897598421237</v>
+      </c>
+      <c r="T19">
+        <v>0.7925747257970266</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.001623867039362195</v>
+      </c>
+      <c r="W19">
+        <v>0.1839983043751308</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-0.008546668628222065</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0771954618106685</v>
+      </c>
+      <c r="C20">
+        <v>4.798587654509987</v>
+      </c>
+      <c r="D20">
+        <v>6.821787654509987</v>
+      </c>
+      <c r="E20">
+        <v>-1.7668</v>
+      </c>
+      <c r="F20">
+        <v>2.0232</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>7.45</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.003</v>
+      </c>
+      <c r="L20">
+        <v>-0.003</v>
+      </c>
+      <c r="M20">
+        <v>0.37166184</v>
+      </c>
+      <c r="N20">
+        <v>-0.37466184</v>
+      </c>
+      <c r="O20">
+        <v>-0.0711857496</v>
+      </c>
+      <c r="P20">
+        <v>-0.3034760904</v>
+      </c>
+      <c r="Q20">
+        <v>-0.3004760904</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05375457325231252</v>
+      </c>
+      <c r="T20">
+        <v>0.8022402712335757</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.001533652203842073</v>
+      </c>
+      <c r="W20">
+        <v>0.1839817319098458</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-0.008071853704431975</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07893946181066851</v>
+      </c>
+      <c r="C21">
+        <v>4.51534776919021</v>
+      </c>
+      <c r="D21">
+        <v>6.650947769190211</v>
+      </c>
+      <c r="E21">
+        <v>-1.6544</v>
+      </c>
+      <c r="F21">
+        <v>2.1356</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>7.45</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.003</v>
+      </c>
+      <c r="L21">
+        <v>-0.003</v>
+      </c>
+      <c r="M21">
+        <v>0.39230972</v>
+      </c>
+      <c r="N21">
+        <v>-0.39530972</v>
+      </c>
+      <c r="O21">
+        <v>-0.0751088468</v>
+      </c>
+      <c r="P21">
+        <v>-0.3202008732</v>
+      </c>
+      <c r="Q21">
+        <v>-0.3172008732</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05430339514431638</v>
+      </c>
+      <c r="T21">
+        <v>0.8121444721130026</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.001452933666797754</v>
+      </c>
+      <c r="W21">
+        <v>0.1839669039145907</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-0.00764701929893552</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08068346181066852</v>
+      </c>
+      <c r="C22">
+        <v>4.240455609028062</v>
+      </c>
+      <c r="D22">
+        <v>6.488455609028062</v>
+      </c>
+      <c r="E22">
+        <v>-1.542</v>
+      </c>
+      <c r="F22">
+        <v>2.248</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>7.45</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.003</v>
+      </c>
+      <c r="L22">
+        <v>-0.003</v>
+      </c>
+      <c r="M22">
+        <v>0.4129576</v>
+      </c>
+      <c r="N22">
+        <v>-0.4159576</v>
+      </c>
+      <c r="O22">
+        <v>-0.07903194400000001</v>
+      </c>
+      <c r="P22">
+        <v>-0.336925656</v>
+      </c>
+      <c r="Q22">
+        <v>-0.333925656</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05486593758362034</v>
+      </c>
+      <c r="T22">
+        <v>0.8222962780144151</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.001380286983457866</v>
+      </c>
+      <c r="W22">
+        <v>0.1839535587188612</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-0.007264668333988755</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08242746181066851</v>
+      </c>
+      <c r="C23">
+        <v>3.97331392509758</v>
+      </c>
+      <c r="D23">
+        <v>6.33371392509758</v>
+      </c>
+      <c r="E23">
+        <v>-1.4296</v>
+      </c>
+      <c r="F23">
+        <v>2.3604</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>7.45</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.003</v>
+      </c>
+      <c r="L23">
+        <v>-0.003</v>
+      </c>
+      <c r="M23">
+        <v>0.43360548</v>
+      </c>
+      <c r="N23">
+        <v>-0.43660548</v>
+      </c>
+      <c r="O23">
+        <v>-0.0829550412</v>
+      </c>
+      <c r="P23">
+        <v>-0.3536504388</v>
+      </c>
+      <c r="Q23">
+        <v>-0.3506504388</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05544272160366617</v>
+      </c>
+      <c r="T23">
+        <v>0.8327050916601673</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.001314559031864634</v>
+      </c>
+      <c r="W23">
+        <v>0.1839414844941535</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-0.006918731746655915</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08417146181066851</v>
+      </c>
+      <c r="C24">
+        <v>3.713381115957259</v>
+      </c>
+      <c r="D24">
+        <v>6.186181115957259</v>
+      </c>
+      <c r="E24">
+        <v>-1.3172</v>
+      </c>
+      <c r="F24">
+        <v>2.4728</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>7.45</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.003</v>
+      </c>
+      <c r="L24">
+        <v>-0.003</v>
+      </c>
+      <c r="M24">
+        <v>0.45425336</v>
+      </c>
+      <c r="N24">
+        <v>-0.45725336</v>
+      </c>
+      <c r="O24">
+        <v>-0.0868781384</v>
+      </c>
+      <c r="P24">
+        <v>-0.3703752216</v>
+      </c>
+      <c r="Q24">
+        <v>-0.3673752216</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05603429495755932</v>
+      </c>
+      <c r="T24">
+        <v>0.8433807979635026</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.00125480634859806</v>
+      </c>
+      <c r="W24">
+        <v>0.1839305079262374</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-0.006604243939989818</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08591546181066852</v>
+      </c>
+      <c r="C25">
+        <v>3.460164894123468</v>
+      </c>
+      <c r="D25">
+        <v>6.045364894123468</v>
+      </c>
+      <c r="E25">
+        <v>-1.2048</v>
+      </c>
+      <c r="F25">
+        <v>2.5852</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.45</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.003</v>
+      </c>
+      <c r="L25">
+        <v>-0.003</v>
+      </c>
+      <c r="M25">
+        <v>0.47490124</v>
+      </c>
+      <c r="N25">
+        <v>-0.47790124</v>
+      </c>
+      <c r="O25">
+        <v>-0.0908012356</v>
+      </c>
+      <c r="P25">
+        <v>-0.3871000044</v>
+      </c>
+      <c r="Q25">
+        <v>-0.3841000044</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05664123385311204</v>
+      </c>
+      <c r="T25">
+        <v>0.854333795339652</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.001200249550832927</v>
+      </c>
+      <c r="W25">
+        <v>0.183920485842488</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-0.006317102899120686</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08765946181066851</v>
+      </c>
+      <c r="C26">
+        <v>3.213216798313091</v>
+      </c>
+      <c r="D26">
+        <v>5.910816798313091</v>
+      </c>
+      <c r="E26">
+        <v>-1.0924</v>
+      </c>
+      <c r="F26">
+        <v>2.6976</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>7.45</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.003</v>
+      </c>
+      <c r="L26">
+        <v>-0.003</v>
+      </c>
+      <c r="M26">
+        <v>0.49554912</v>
+      </c>
+      <c r="N26">
+        <v>-0.49854912</v>
+      </c>
+      <c r="O26">
+        <v>-0.09472433280000001</v>
+      </c>
+      <c r="P26">
+        <v>-0.4038247872</v>
+      </c>
+      <c r="Q26">
+        <v>-0.4008247872</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05726414482486351</v>
+      </c>
+      <c r="T26">
+        <v>0.865575029488858</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.001150239152881555</v>
+      </c>
+      <c r="W26">
+        <v>0.1839112989323843</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-0.006053890278324037</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08940346181066851</v>
+      </c>
+      <c r="C27">
+        <v>2.972127422557735</v>
+      </c>
+      <c r="D27">
+        <v>5.782127422557735</v>
+      </c>
+      <c r="E27">
+        <v>-0.98</v>
+      </c>
+      <c r="F27">
+        <v>2.81</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>7.45</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.003</v>
+      </c>
+      <c r="L27">
+        <v>-0.003</v>
+      </c>
+      <c r="M27">
+        <v>0.516197</v>
+      </c>
+      <c r="N27">
+        <v>-0.519197</v>
+      </c>
+      <c r="O27">
+        <v>-0.09864743000000001</v>
+      </c>
+      <c r="P27">
+        <v>-0.42054957</v>
+      </c>
+      <c r="Q27">
+        <v>-0.41754957</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05790366675586169</v>
+      </c>
+      <c r="T27">
+        <v>0.8771160298820426</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.001104229586766293</v>
+      </c>
+      <c r="W27">
+        <v>0.183902846975089</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-0.005811734667191093</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09114746181066852</v>
+      </c>
+      <c r="C28">
+        <v>2.736522255264124</v>
+      </c>
+      <c r="D28">
+        <v>5.658922255264124</v>
+      </c>
+      <c r="E28">
+        <v>-0.8675999999999999</v>
+      </c>
+      <c r="F28">
+        <v>2.9224</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>7.45</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.003</v>
+      </c>
+      <c r="L28">
+        <v>-0.003</v>
+      </c>
+      <c r="M28">
+        <v>0.5368448800000001</v>
+      </c>
+      <c r="N28">
+        <v>-0.5398448800000001</v>
+      </c>
+      <c r="O28">
+        <v>-0.1025705272</v>
+      </c>
+      <c r="P28">
+        <v>-0.4372743528</v>
+      </c>
+      <c r="Q28">
+        <v>-0.4342743528</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05856047306337334</v>
+      </c>
+      <c r="T28">
+        <v>0.8889689492047731</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.001061759218044512</v>
+      </c>
+      <c r="W28">
+        <v>0.1838950451683548</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-0.005588206410760632</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09289146181066851</v>
+      </c>
+      <c r="C29">
+        <v>2.506058039141981</v>
+      </c>
+      <c r="D29">
+        <v>5.540858039141981</v>
+      </c>
+      <c r="E29">
+        <v>-0.7551999999999999</v>
+      </c>
+      <c r="F29">
+        <v>3.0348</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>7.45</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.003</v>
+      </c>
+      <c r="L29">
+        <v>-0.003</v>
+      </c>
+      <c r="M29">
+        <v>0.55749276</v>
+      </c>
+      <c r="N29">
+        <v>-0.56049276</v>
+      </c>
+      <c r="O29">
+        <v>-0.1064936244</v>
+      </c>
+      <c r="P29">
+        <v>-0.4539991356</v>
+      </c>
+      <c r="Q29">
+        <v>-0.4509991356</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05923527406424146</v>
+      </c>
+      <c r="T29">
+        <v>0.9011466060431946</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.001022434802561382</v>
+      </c>
+      <c r="W29">
+        <v>0.1838878212732305</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-0.005381235802954576</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09463546181066851</v>
+      </c>
+      <c r="C30">
+        <v>2.280419577484585</v>
+      </c>
+      <c r="D30">
+        <v>5.427619577484585</v>
+      </c>
+      <c r="E30">
+        <v>-0.6427999999999998</v>
+      </c>
+      <c r="F30">
+        <v>3.1472</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>7.45</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.003</v>
+      </c>
+      <c r="L30">
+        <v>-0.003</v>
+      </c>
+      <c r="M30">
+        <v>0.5781406400000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.5811406400000001</v>
+      </c>
+      <c r="O30">
+        <v>-0.1104167216</v>
+      </c>
+      <c r="P30">
+        <v>-0.4707239184000001</v>
+      </c>
+      <c r="Q30">
+        <v>-0.4677239184</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05992881953735593</v>
+      </c>
+      <c r="T30">
+        <v>0.913662531127128</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.0009859192738984755</v>
+      </c>
+      <c r="W30">
+        <v>0.1838811133706152</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-0.005189048809991936</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0963794618106685</v>
+      </c>
+      <c r="C31">
+        <v>2.059316924226186</v>
+      </c>
+      <c r="D31">
+        <v>5.318916924226186</v>
+      </c>
+      <c r="E31">
+        <v>-0.5304000000000002</v>
+      </c>
+      <c r="F31">
+        <v>3.2596</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>7.45</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.003</v>
+      </c>
+      <c r="L31">
+        <v>-0.003</v>
+      </c>
+      <c r="M31">
+        <v>0.5987885199999999</v>
+      </c>
+      <c r="N31">
+        <v>-0.6017885199999999</v>
+      </c>
+      <c r="O31">
+        <v>-0.1143398188</v>
+      </c>
+      <c r="P31">
+        <v>-0.4874487011999999</v>
+      </c>
+      <c r="Q31">
+        <v>-0.4844487011999999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06064190150267079</v>
+      </c>
+      <c r="T31">
+        <v>0.9265310174810311</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.0009519220575571491</v>
+      </c>
+      <c r="W31">
+        <v>0.1838748680819733</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-0.005010116092406092</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.0981234618106685</v>
+      </c>
+      <c r="C32">
+        <v>1.842482905029511</v>
+      </c>
+      <c r="D32">
+        <v>5.214482905029511</v>
+      </c>
+      <c r="E32">
+        <v>-0.4180000000000001</v>
+      </c>
+      <c r="F32">
+        <v>3.372</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>7.45</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.003</v>
+      </c>
+      <c r="L32">
+        <v>-0.003</v>
+      </c>
+      <c r="M32">
+        <v>0.6194364</v>
+      </c>
+      <c r="N32">
+        <v>-0.6224364</v>
+      </c>
+      <c r="O32">
+        <v>-0.118262916</v>
+      </c>
+      <c r="P32">
+        <v>-0.5041734840000001</v>
+      </c>
+      <c r="Q32">
+        <v>-0.5011734840000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06137535723842324</v>
+      </c>
+      <c r="T32">
+        <v>0.9397671748736174</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.0009201913223052439</v>
+      </c>
+      <c r="W32">
+        <v>0.1838690391459075</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-0.004843112222659096</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.0998674618106685</v>
+      </c>
+      <c r="C33">
+        <v>1.629670924782317</v>
+      </c>
+      <c r="D33">
+        <v>5.114070924782317</v>
+      </c>
+      <c r="E33">
+        <v>-0.3056000000000001</v>
+      </c>
+      <c r="F33">
+        <v>3.4844</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>7.45</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.003</v>
+      </c>
+      <c r="L33">
+        <v>-0.003</v>
+      </c>
+      <c r="M33">
+        <v>0.6400842799999999</v>
+      </c>
+      <c r="N33">
+        <v>-0.64308428</v>
+      </c>
+      <c r="O33">
+        <v>-0.1221860132</v>
+      </c>
+      <c r="P33">
+        <v>-0.5208982668</v>
+      </c>
+      <c r="Q33">
+        <v>-0.5178982668</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06213007256071923</v>
+      </c>
+      <c r="T33">
+        <v>0.9533869890022204</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.0008905077312631395</v>
+      </c>
+      <c r="W33">
+        <v>0.183863586270233</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-0.004686882796121727</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1016114618106685</v>
+      </c>
+      <c r="C34">
+        <v>1.420653023625977</v>
+      </c>
+      <c r="D34">
+        <v>5.017453023625977</v>
+      </c>
+      <c r="E34">
+        <v>-0.1932</v>
+      </c>
+      <c r="F34">
+        <v>3.5968</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>7.45</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.003</v>
+      </c>
+      <c r="L34">
+        <v>-0.003</v>
+      </c>
+      <c r="M34">
+        <v>0.66073216</v>
+      </c>
+      <c r="N34">
+        <v>-0.66373216</v>
+      </c>
+      <c r="O34">
+        <v>-0.1261091104</v>
+      </c>
+      <c r="P34">
+        <v>-0.5376230496000001</v>
+      </c>
+      <c r="Q34">
+        <v>-0.5346230496000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06290698539249451</v>
+      </c>
+      <c r="T34">
+        <v>0.9674073858993119</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.0008626793646611662</v>
+      </c>
+      <c r="W34">
+        <v>0.1838584741992882</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-0.004540417708742917</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1033554618106685</v>
+      </c>
+      <c r="C35">
+        <v>1.215218149257723</v>
+      </c>
+      <c r="D35">
+        <v>4.924418149257723</v>
+      </c>
+      <c r="E35">
+        <v>-0.08079999999999998</v>
+      </c>
+      <c r="F35">
+        <v>3.7092</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>7.45</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.003</v>
+      </c>
+      <c r="L35">
+        <v>-0.003</v>
+      </c>
+      <c r="M35">
+        <v>0.68138004</v>
+      </c>
+      <c r="N35">
+        <v>-0.68438004</v>
+      </c>
+      <c r="O35">
+        <v>-0.1300322076</v>
+      </c>
+      <c r="P35">
+        <v>-0.5543478324</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5513478324</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06370708965208399</v>
+      </c>
+      <c r="T35">
+        <v>0.9818463021067644</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.0008365375657320399</v>
+      </c>
+      <c r="W35">
+        <v>0.183853671950825</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-0.004402829293326471</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1050994618106685</v>
+      </c>
+      <c r="C36">
+        <v>1.013170617946132</v>
+      </c>
+      <c r="D36">
+        <v>4.834770617946132</v>
+      </c>
+      <c r="E36">
+        <v>0.03160000000000052</v>
+      </c>
+      <c r="F36">
+        <v>3.821600000000001</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>7.45</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.003</v>
+      </c>
+      <c r="L36">
+        <v>-0.003</v>
+      </c>
+      <c r="M36">
+        <v>0.7020279200000001</v>
+      </c>
+      <c r="N36">
+        <v>-0.7050279200000001</v>
+      </c>
+      <c r="O36">
+        <v>-0.1339553048</v>
+      </c>
+      <c r="P36">
+        <v>-0.5710726152000001</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5680726152000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06453143949529737</v>
+      </c>
+      <c r="T36">
+        <v>0.996722761229594</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.0008119335196810975</v>
+      </c>
+      <c r="W36">
+        <v>0.1838491521875654</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-0.004273334314111032</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1068434618106685</v>
+      </c>
+      <c r="C37">
+        <v>0.8143287406415882</v>
+      </c>
+      <c r="D37">
+        <v>4.748328740641589</v>
+      </c>
+      <c r="E37">
+        <v>0.1440000000000006</v>
+      </c>
+      <c r="F37">
+        <v>3.934000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>7.45</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.003</v>
+      </c>
+      <c r="L37">
+        <v>-0.003</v>
+      </c>
+      <c r="M37">
+        <v>0.7226758000000001</v>
+      </c>
+      <c r="N37">
+        <v>-0.7256758000000001</v>
+      </c>
+      <c r="O37">
+        <v>-0.137878402</v>
+      </c>
+      <c r="P37">
+        <v>-0.5877973980000001</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5847973980000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06538115394907119</v>
+      </c>
+      <c r="T37">
+        <v>1.012056957556203</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.0007887354191187805</v>
+      </c>
+      <c r="W37">
+        <v>0.1838448906964921</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-0.004151239047993638</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1085874618106685</v>
+      </c>
+      <c r="C38">
+        <v>0.6185235938822728</v>
+      </c>
+      <c r="D38">
+        <v>4.664923593882273</v>
+      </c>
+      <c r="E38">
+        <v>0.2564000000000002</v>
+      </c>
+      <c r="F38">
+        <v>4.0464</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>7.45</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.003</v>
+      </c>
+      <c r="L38">
+        <v>-0.003</v>
+      </c>
+      <c r="M38">
+        <v>0.74332368</v>
+      </c>
+      <c r="N38">
+        <v>-0.74632368</v>
+      </c>
+      <c r="O38">
+        <v>-0.1418014992</v>
+      </c>
+      <c r="P38">
+        <v>-0.6045221808000001</v>
+      </c>
+      <c r="Q38">
+        <v>-0.6015221808000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06625742197952542</v>
+      </c>
+      <c r="T38">
+        <v>1.027870347518019</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.0007668261019210367</v>
+      </c>
+      <c r="W38">
+        <v>0.1838408659549229</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-0.004035926852215876</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1103314618106685</v>
+      </c>
+      <c r="C39">
+        <v>0.425597917999478</v>
+      </c>
+      <c r="D39">
+        <v>4.584397917999478</v>
+      </c>
+      <c r="E39">
+        <v>0.3688000000000002</v>
+      </c>
+      <c r="F39">
+        <v>4.1588</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>7.45</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.003</v>
+      </c>
+      <c r="L39">
+        <v>-0.003</v>
+      </c>
+      <c r="M39">
+        <v>0.7639715600000001</v>
+      </c>
+      <c r="N39">
+        <v>-0.7669715600000001</v>
+      </c>
+      <c r="O39">
+        <v>-0.1457245964</v>
+      </c>
+      <c r="P39">
+        <v>-0.6212469636000001</v>
+      </c>
+      <c r="Q39">
+        <v>-0.6182469636000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0671615080426925</v>
+      </c>
+      <c r="T39">
+        <v>1.044185749859575</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.0007461010721393868</v>
+      </c>
+      <c r="W39">
+        <v>0.183837058766952</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-0.003926847748102036</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1120754618106685</v>
+      </c>
+      <c r="C40">
+        <v>0.2354051275012976</v>
+      </c>
+      <c r="D40">
+        <v>4.506605127501298</v>
+      </c>
+      <c r="E40">
+        <v>0.4812000000000003</v>
+      </c>
+      <c r="F40">
+        <v>4.2712</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>7.45</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.003</v>
+      </c>
+      <c r="L40">
+        <v>-0.003</v>
+      </c>
+      <c r="M40">
+        <v>0.7846194400000001</v>
+      </c>
+      <c r="N40">
+        <v>-0.7876194400000001</v>
+      </c>
+      <c r="O40">
+        <v>-0.1496476936</v>
+      </c>
+      <c r="P40">
+        <v>-0.6379717464000001</v>
+      </c>
+      <c r="Q40">
+        <v>-0.6349717464000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06809475817241334</v>
+      </c>
+      <c r="T40">
+        <v>1.061027455502471</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.0007264668333988768</v>
+      </c>
+      <c r="W40">
+        <v>0.1838334519572954</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-0.003823509649467871</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1138194618106685</v>
+      </c>
+      <c r="C41">
+        <v>0.04780842053203216</v>
+      </c>
+      <c r="D41">
+        <v>4.431408420532033</v>
+      </c>
+      <c r="E41">
+        <v>0.5936000000000003</v>
+      </c>
+      <c r="F41">
+        <v>4.3836</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>7.45</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.003</v>
+      </c>
+      <c r="L41">
+        <v>-0.003</v>
+      </c>
+      <c r="M41">
+        <v>0.8052673200000001</v>
+      </c>
+      <c r="N41">
+        <v>-0.8082673200000001</v>
+      </c>
+      <c r="O41">
+        <v>-0.1535707908</v>
+      </c>
+      <c r="P41">
+        <v>-0.6546965292000001</v>
+      </c>
+      <c r="Q41">
+        <v>-0.6516965292000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.06905860666704307</v>
+      </c>
+      <c r="T41">
+        <v>1.078421348215626</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.0007078394786963414</v>
+      </c>
+      <c r="W41">
+        <v>0.1838300301122365</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-0.003725470940507014</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1155634618106685</v>
+      </c>
+      <c r="C42">
+        <v>-0.1373200239748638</v>
+      </c>
+      <c r="D42">
+        <v>4.358679976025137</v>
+      </c>
+      <c r="E42">
+        <v>0.7060000000000004</v>
+      </c>
+      <c r="F42">
+        <v>4.496</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>7.45</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.003</v>
+      </c>
+      <c r="L42">
+        <v>-0.003</v>
+      </c>
+      <c r="M42">
+        <v>0.8259152000000001</v>
+      </c>
+      <c r="N42">
+        <v>-0.8289152000000001</v>
+      </c>
+      <c r="O42">
+        <v>-0.157493888</v>
+      </c>
+      <c r="P42">
+        <v>-0.6714213120000001</v>
+      </c>
+      <c r="Q42">
+        <v>-0.6684213120000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07005458344482712</v>
+      </c>
+      <c r="T42">
+        <v>1.096395037352554</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.0006901434917289329</v>
+      </c>
+      <c r="W42">
+        <v>0.1838267793594306</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-0.003632334166994378</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1173074618106685</v>
+      </c>
+      <c r="C43">
+        <v>-0.3200997713622531</v>
+      </c>
+      <c r="D43">
+        <v>4.288300228637747</v>
+      </c>
+      <c r="E43">
+        <v>0.8184000000000005</v>
+      </c>
+      <c r="F43">
+        <v>4.6084</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>7.45</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.003</v>
+      </c>
+      <c r="L43">
+        <v>-0.003</v>
+      </c>
+      <c r="M43">
+        <v>0.8465630800000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.8495630800000001</v>
+      </c>
+      <c r="O43">
+        <v>-0.1614169852</v>
+      </c>
+      <c r="P43">
+        <v>-0.6881460948000001</v>
+      </c>
+      <c r="Q43">
+        <v>-0.6851460948000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07108432214728182</v>
+      </c>
+      <c r="T43">
+        <v>1.114978004087342</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.0006733107236379833</v>
+      </c>
+      <c r="W43">
+        <v>0.1838236871799323</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-0.003543740650726157</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1190514618106685</v>
+      </c>
+      <c r="C44">
+        <v>-0.5006427871850914</v>
+      </c>
+      <c r="D44">
+        <v>4.220157212814908</v>
+      </c>
+      <c r="E44">
+        <v>0.9307999999999996</v>
+      </c>
+      <c r="F44">
+        <v>4.7208</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>7.45</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.003</v>
+      </c>
+      <c r="L44">
+        <v>-0.003</v>
+      </c>
+      <c r="M44">
+        <v>0.86721096</v>
+      </c>
+      <c r="N44">
+        <v>-0.87021096</v>
+      </c>
+      <c r="O44">
+        <v>-0.1653400824</v>
+      </c>
+      <c r="P44">
+        <v>-0.7048708776</v>
+      </c>
+      <c r="Q44">
+        <v>-0.7018708776</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07214956908085564</v>
+      </c>
+      <c r="T44">
+        <v>1.134201762778503</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.0006572795159323171</v>
+      </c>
+      <c r="W44">
+        <v>0.1838207422470768</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-0.003459365873327958</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1207954618106685</v>
+      </c>
+      <c r="C45">
+        <v>-0.6790540315857587</v>
+      </c>
+      <c r="D45">
+        <v>4.154145968414241</v>
+      </c>
+      <c r="E45">
+        <v>1.0432</v>
+      </c>
+      <c r="F45">
+        <v>4.8332</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>7.45</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.003</v>
+      </c>
+      <c r="L45">
+        <v>-0.003</v>
+      </c>
+      <c r="M45">
+        <v>0.8878588399999999</v>
+      </c>
+      <c r="N45">
+        <v>-0.8908588399999999</v>
+      </c>
+      <c r="O45">
+        <v>-0.1692631796</v>
+      </c>
+      <c r="P45">
+        <v>-0.7215956604</v>
+      </c>
+      <c r="Q45">
+        <v>-0.7185956604</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07325219309981802</v>
+      </c>
+      <c r="T45">
+        <v>1.154100039318477</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.0006419939457943563</v>
+      </c>
+      <c r="W45">
+        <v>0.1838179342878424</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.003378915504180791</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1225394618106685</v>
+      </c>
+      <c r="C46">
+        <v>-0.8554319987455417</v>
+      </c>
+      <c r="D46">
+        <v>4.090168001254458</v>
+      </c>
+      <c r="E46">
+        <v>1.1556</v>
+      </c>
+      <c r="F46">
+        <v>4.9456</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>7.45</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.003</v>
+      </c>
+      <c r="L46">
+        <v>-0.003</v>
+      </c>
+      <c r="M46">
+        <v>0.90850672</v>
+      </c>
+      <c r="N46">
+        <v>-0.91150672</v>
+      </c>
+      <c r="O46">
+        <v>-0.1731862768</v>
+      </c>
+      <c r="P46">
+        <v>-0.7383204432</v>
+      </c>
+      <c r="Q46">
+        <v>-0.7353204432</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07439419654802905</v>
+      </c>
+      <c r="T46">
+        <v>1.174708968592022</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.00062740317429903</v>
+      </c>
+      <c r="W46">
+        <v>0.1838152539631187</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.003302121969994909</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1242834618106685</v>
+      </c>
+      <c r="C47">
+        <v>-1.029869207243693</v>
+      </c>
+      <c r="D47">
+        <v>4.028130792756307</v>
+      </c>
+      <c r="E47">
+        <v>1.268</v>
+      </c>
+      <c r="F47">
+        <v>5.058</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>7.45</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.003</v>
+      </c>
+      <c r="L47">
+        <v>-0.003</v>
+      </c>
+      <c r="M47">
+        <v>0.9291545999999999</v>
+      </c>
+      <c r="N47">
+        <v>-0.9321545999999999</v>
+      </c>
+      <c r="O47">
+        <v>-0.177109374</v>
+      </c>
+      <c r="P47">
+        <v>-0.755045226</v>
+      </c>
+      <c r="Q47">
+        <v>-0.752045226</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07557772739435685</v>
+      </c>
+      <c r="T47">
+        <v>1.196067313475513</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.0006134608815368293</v>
+      </c>
+      <c r="W47">
+        <v>0.1838126927639383</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.003228741481772879</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1260274618106685</v>
+      </c>
+      <c r="C48">
+        <v>-1.202452646458381</v>
+      </c>
+      <c r="D48">
+        <v>3.967947353541619</v>
+      </c>
+      <c r="E48">
+        <v>1.3804</v>
+      </c>
+      <c r="F48">
+        <v>5.1704</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>7.45</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.003</v>
+      </c>
+      <c r="L48">
+        <v>-0.003</v>
+      </c>
+      <c r="M48">
+        <v>0.94980248</v>
+      </c>
+      <c r="N48">
+        <v>-0.95280248</v>
+      </c>
+      <c r="O48">
+        <v>-0.1810324712</v>
+      </c>
+      <c r="P48">
+        <v>-0.7717700088</v>
+      </c>
+      <c r="Q48">
+        <v>-0.7687700088</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07680509271647458</v>
+      </c>
+      <c r="T48">
+        <v>1.218216708169504</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.0006001247754164634</v>
+      </c>
+      <c r="W48">
+        <v>0.183810242921244</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.003158551449560232</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1277714618106685</v>
+      </c>
+      <c r="C49">
+        <v>-1.373264183539233</v>
+      </c>
+      <c r="D49">
+        <v>3.909535816460768</v>
+      </c>
+      <c r="E49">
+        <v>1.492800000000001</v>
+      </c>
+      <c r="F49">
+        <v>5.282800000000001</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>7.45</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.003</v>
+      </c>
+      <c r="L49">
+        <v>-0.003</v>
+      </c>
+      <c r="M49">
+        <v>0.9704503600000002</v>
+      </c>
+      <c r="N49">
+        <v>-0.9734503600000002</v>
+      </c>
+      <c r="O49">
+        <v>-0.1849555684</v>
+      </c>
+      <c r="P49">
+        <v>-0.7884947916000001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.7854947916000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07807877371112504</v>
+      </c>
+      <c r="T49">
+        <v>1.241201929078362</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.0005873561631735599</v>
+      </c>
+      <c r="W49">
+        <v>0.183807897327175</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.003091348227229229</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1295154618106685</v>
+      </c>
+      <c r="C50">
+        <v>-1.5423809349555</v>
+      </c>
+      <c r="D50">
+        <v>3.8528190650445</v>
+      </c>
+      <c r="E50">
+        <v>1.6052</v>
+      </c>
+      <c r="F50">
+        <v>5.3952</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>7.45</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0.003</v>
+      </c>
+      <c r="L50">
+        <v>-0.003</v>
+      </c>
+      <c r="M50">
+        <v>0.99109824</v>
+      </c>
+      <c r="N50">
+        <v>-0.99409824</v>
+      </c>
+      <c r="O50">
+        <v>-0.1888786656</v>
+      </c>
+      <c r="P50">
+        <v>-0.8052195744</v>
+      </c>
+      <c r="Q50">
+        <v>-0.8022195744</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.07940144243633898</v>
+      </c>
+      <c r="T50">
+        <v>1.265071196945254</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.0005751195764407775</v>
+      </c>
+      <c r="W50">
+        <v>0.1838056494661922</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.003026945139162018</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1312594618106685</v>
+      </c>
+      <c r="C51">
+        <v>-1.709875606165749</v>
+      </c>
+      <c r="D51">
+        <v>3.797724393834251</v>
+      </c>
+      <c r="E51">
+        <v>1.7176</v>
+      </c>
+      <c r="F51">
+        <v>5.5076</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>7.45</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.003</v>
+      </c>
+      <c r="L51">
+        <v>-0.003</v>
+      </c>
+      <c r="M51">
+        <v>1.01174612</v>
+      </c>
+      <c r="N51">
+        <v>-1.01474612</v>
+      </c>
+      <c r="O51">
+        <v>-0.1928017628</v>
+      </c>
+      <c r="P51">
+        <v>-0.8219443571999999</v>
+      </c>
+      <c r="Q51">
+        <v>-0.8189443571999999</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08077598052332602</v>
+      </c>
+      <c r="T51">
+        <v>1.289876514532416</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.0005633824422277004</v>
+      </c>
+      <c r="W51">
+        <v>0.1838034933546372</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.002965170748566726</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1330034618106685</v>
+      </c>
+      <c r="C52">
+        <v>-1.875816802555095</v>
+      </c>
+      <c r="D52">
+        <v>3.744183197444905</v>
+      </c>
+      <c r="E52">
+        <v>1.83</v>
+      </c>
+      <c r="F52">
+        <v>5.62</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>7.45</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.003</v>
+      </c>
+      <c r="L52">
+        <v>-0.003</v>
+      </c>
+      <c r="M52">
+        <v>1.032394</v>
+      </c>
+      <c r="N52">
+        <v>-1.035394</v>
+      </c>
+      <c r="O52">
+        <v>-0.19672486</v>
+      </c>
+      <c r="P52">
+        <v>-0.8386691399999999</v>
+      </c>
+      <c r="Q52">
+        <v>-0.8356691399999999</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08220550013379255</v>
+      </c>
+      <c r="T52">
+        <v>1.315674044823064</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.0005521147933831463</v>
+      </c>
+      <c r="W52">
+        <v>0.1838014234875445</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.002905867333595324</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1347474618106685</v>
+      </c>
+      <c r="C53">
+        <v>-2.040269314436117</v>
+      </c>
+      <c r="D53">
+        <v>3.692130685563884</v>
+      </c>
+      <c r="E53">
+        <v>1.9424</v>
+      </c>
+      <c r="F53">
+        <v>5.7324</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>7.45</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.003</v>
+      </c>
+      <c r="L53">
+        <v>-0.003</v>
+      </c>
+      <c r="M53">
+        <v>1.05304188</v>
+      </c>
+      <c r="N53">
+        <v>-1.05604188</v>
+      </c>
+      <c r="O53">
+        <v>-0.2006479572</v>
+      </c>
+      <c r="P53">
+        <v>-0.8553939228</v>
+      </c>
+      <c r="Q53">
+        <v>-0.8523939228</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.08369336748346176</v>
+      </c>
+      <c r="T53">
+        <v>1.342524535533739</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.0005412890131207316</v>
+      </c>
+      <c r="W53">
+        <v>0.1837994347917103</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.00284888954274054</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1364914618106685</v>
+      </c>
+      <c r="C54">
+        <v>-2.203294378602832</v>
+      </c>
+      <c r="D54">
+        <v>3.641505621397168</v>
+      </c>
+      <c r="E54">
+        <v>2.0548</v>
+      </c>
+      <c r="F54">
+        <v>5.8448</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7.45</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.003</v>
+      </c>
+      <c r="L54">
+        <v>-0.003</v>
+      </c>
+      <c r="M54">
+        <v>1.07368976</v>
+      </c>
+      <c r="N54">
+        <v>-1.07668976</v>
+      </c>
+      <c r="O54">
+        <v>-0.2045710544</v>
+      </c>
+      <c r="P54">
+        <v>-0.8721187056</v>
+      </c>
+      <c r="Q54">
+        <v>-0.8691187056</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.0852432293060339</v>
+      </c>
+      <c r="T54">
+        <v>1.370493796690692</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.0005308796090222561</v>
+      </c>
+      <c r="W54">
+        <v>0.1837975225841774</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.002794103205380205</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1382354618106685</v>
+      </c>
+      <c r="C55">
+        <v>-2.364949918657766</v>
+      </c>
+      <c r="D55">
+        <v>3.592250081342235</v>
+      </c>
+      <c r="E55">
+        <v>2.1672</v>
+      </c>
+      <c r="F55">
+        <v>5.9572</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>7.45</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.003</v>
+      </c>
+      <c r="L55">
+        <v>-0.003</v>
+      </c>
+      <c r="M55">
+        <v>1.09433764</v>
+      </c>
+      <c r="N55">
+        <v>-1.09733764</v>
+      </c>
+      <c r="O55">
+        <v>-0.2084941516</v>
+      </c>
+      <c r="P55">
+        <v>-0.8888434883999999</v>
+      </c>
+      <c r="Q55">
+        <v>-0.8858434883999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.086859042695524</v>
+      </c>
+      <c r="T55">
+        <v>1.399653239173473</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.0005208630126256097</v>
+      </c>
+      <c r="W55">
+        <v>0.1837956825354193</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.002741384276976788</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1399794618106685</v>
+      </c>
+      <c r="C56">
+        <v>-2.52529076609512</v>
+      </c>
+      <c r="D56">
+        <v>3.544309233904881</v>
+      </c>
+      <c r="E56">
+        <v>2.2796</v>
+      </c>
+      <c r="F56">
+        <v>6.0696</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>7.45</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.003</v>
+      </c>
+      <c r="L56">
+        <v>-0.003</v>
+      </c>
+      <c r="M56">
+        <v>1.11498552</v>
+      </c>
+      <c r="N56">
+        <v>-1.11798552</v>
+      </c>
+      <c r="O56">
+        <v>-0.2124172488</v>
+      </c>
+      <c r="P56">
+        <v>-0.9055682711999999</v>
+      </c>
+      <c r="Q56">
+        <v>-0.9025682711999999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.08854510884107886</v>
+      </c>
+      <c r="T56">
+        <v>1.430080483503331</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.0005112174012806911</v>
+      </c>
+      <c r="W56">
+        <v>0.1837939106366153</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.002690617901477177</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1417234618106685</v>
+      </c>
+      <c r="C57">
+        <v>-2.684368863914129</v>
+      </c>
+      <c r="D57">
+        <v>3.497631136085872</v>
+      </c>
+      <c r="E57">
+        <v>2.392</v>
+      </c>
+      <c r="F57">
+        <v>6.182</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>7.45</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.003</v>
+      </c>
+      <c r="L57">
+        <v>-0.003</v>
+      </c>
+      <c r="M57">
+        <v>1.1356334</v>
+      </c>
+      <c r="N57">
+        <v>-1.1386334</v>
+      </c>
+      <c r="O57">
+        <v>-0.216340346</v>
+      </c>
+      <c r="P57">
+        <v>-0.9222930540000001</v>
+      </c>
+      <c r="Q57">
+        <v>-0.9192930540000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09030611125976949</v>
+      </c>
+      <c r="T57">
+        <v>1.461860049803405</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.0005019225394392239</v>
+      </c>
+      <c r="W57">
+        <v>0.183792203170495</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.00264169757599575</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1434674618106685</v>
+      </c>
+      <c r="C58">
+        <v>-2.84223345435217</v>
+      </c>
+      <c r="D58">
+        <v>3.452166545647831</v>
+      </c>
+      <c r="E58">
+        <v>2.5044</v>
+      </c>
+      <c r="F58">
+        <v>6.2944</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>7.45</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.003</v>
+      </c>
+      <c r="L58">
+        <v>-0.003</v>
+      </c>
+      <c r="M58">
+        <v>1.15628128</v>
+      </c>
+      <c r="N58">
+        <v>-1.15928128</v>
+      </c>
+      <c r="O58">
+        <v>-0.2202634432</v>
+      </c>
+      <c r="P58">
+        <v>-0.9390178368000001</v>
+      </c>
+      <c r="Q58">
+        <v>-0.9360178368000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.09214715924294607</v>
+      </c>
+      <c r="T58">
+        <v>1.495084141844391</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.0004929596369492378</v>
+      </c>
+      <c r="W58">
+        <v>0.1837905566853076</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.002594524404995857</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1452114618106685</v>
+      </c>
+      <c r="C59">
+        <v>-2.99893125216408</v>
+      </c>
+      <c r="D59">
+        <v>3.407868747835921</v>
+      </c>
+      <c r="E59">
+        <v>2.6168</v>
+      </c>
+      <c r="F59">
+        <v>6.4068</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>7.45</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.003</v>
+      </c>
+      <c r="L59">
+        <v>-0.003</v>
+      </c>
+      <c r="M59">
+        <v>1.17692916</v>
+      </c>
+      <c r="N59">
+        <v>-1.17992916</v>
+      </c>
+      <c r="O59">
+        <v>-0.2241865404</v>
+      </c>
+      <c r="P59">
+        <v>-0.9557426196</v>
+      </c>
+      <c r="Q59">
+        <v>-0.9527426196</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.09407383736487505</v>
+      </c>
+      <c r="T59">
+        <v>1.529853540491935</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.0004843112222659178</v>
+      </c>
+      <c r="W59">
+        <v>0.1837889679715302</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.002549006432978507</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1469554618106685</v>
+      </c>
+      <c r="C60">
+        <v>-3.154506604729458</v>
+      </c>
+      <c r="D60">
+        <v>3.364693395270542</v>
+      </c>
+      <c r="E60">
+        <v>2.7292</v>
+      </c>
+      <c r="F60">
+        <v>6.5192</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>7.45</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.003</v>
+      </c>
+      <c r="L60">
+        <v>-0.003</v>
+      </c>
+      <c r="M60">
+        <v>1.19757704</v>
+      </c>
+      <c r="N60">
+        <v>-1.20057704</v>
+      </c>
+      <c r="O60">
+        <v>-0.2281096376</v>
+      </c>
+      <c r="P60">
+        <v>-0.9724674023999997</v>
+      </c>
+      <c r="Q60">
+        <v>-0.9694674023999997</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09609226206403873</v>
+      </c>
+      <c r="T60">
+        <v>1.566278624789362</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.0004759610287785745</v>
+      </c>
+      <c r="W60">
+        <v>0.1837874340409866</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.002505058046202935</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1486994618106685</v>
+      </c>
+      <c r="C61">
+        <v>-3.309001640141588</v>
+      </c>
+      <c r="D61">
+        <v>3.322598359858412</v>
+      </c>
+      <c r="E61">
+        <v>2.8416</v>
+      </c>
+      <c r="F61">
+        <v>6.6316</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>7.45</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.003</v>
+      </c>
+      <c r="L61">
+        <v>-0.003</v>
+      </c>
+      <c r="M61">
+        <v>1.21822492</v>
+      </c>
+      <c r="N61">
+        <v>-1.22122492</v>
+      </c>
+      <c r="O61">
+        <v>-0.2320327348</v>
+      </c>
+      <c r="P61">
+        <v>-0.9891921851999999</v>
+      </c>
+      <c r="Q61">
+        <v>-0.9861921851999998</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.09820914650462505</v>
+      </c>
+      <c r="T61">
+        <v>1.604480542467151</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.0004678938926975818</v>
+      </c>
+      <c r="W61">
+        <v>0.1837859521080886</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.00246259943525029</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1504434618106685</v>
+      </c>
+      <c r="C62">
+        <v>-3.462456404317388</v>
+      </c>
+      <c r="D62">
+        <v>3.281543595682611</v>
+      </c>
+      <c r="E62">
+        <v>2.954</v>
+      </c>
+      <c r="F62">
+        <v>6.744</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>7.45</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.003</v>
+      </c>
+      <c r="L62">
+        <v>-0.003</v>
+      </c>
+      <c r="M62">
+        <v>1.2388728</v>
+      </c>
+      <c r="N62">
+        <v>-1.2418728</v>
+      </c>
+      <c r="O62">
+        <v>-0.235955832</v>
+      </c>
+      <c r="P62">
+        <v>-1.005916968</v>
+      </c>
+      <c r="Q62">
+        <v>-1.002916968</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1004318751672407</v>
+      </c>
+      <c r="T62">
+        <v>1.64459255602883</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.000460095661152622</v>
+      </c>
+      <c r="W62">
+        <v>0.1837845195729537</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.002421556111329437</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1521874618106685</v>
+      </c>
+      <c r="C63">
+        <v>-3.614908988066505</v>
+      </c>
+      <c r="D63">
+        <v>3.241491011933495</v>
+      </c>
+      <c r="E63">
+        <v>3.0664</v>
+      </c>
+      <c r="F63">
+        <v>6.8564</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>7.45</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.003</v>
+      </c>
+      <c r="L63">
+        <v>-0.003</v>
+      </c>
+      <c r="M63">
+        <v>1.25952068</v>
+      </c>
+      <c r="N63">
+        <v>-1.26252068</v>
+      </c>
+      <c r="O63">
+        <v>-0.2398789292</v>
+      </c>
+      <c r="P63">
+        <v>-1.0226417508</v>
+      </c>
+      <c r="Q63">
+        <v>-1.0196417508</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1027685899151186</v>
+      </c>
+      <c r="T63">
+        <v>1.686761595927005</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.0004525531093304478</v>
+      </c>
+      <c r="W63">
+        <v>0.183783134006184</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.002381858470160259</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1539314618106685</v>
+      </c>
+      <c r="C64">
+        <v>-3.766395644967009</v>
+      </c>
+      <c r="D64">
+        <v>3.202404355032991</v>
+      </c>
+      <c r="E64">
+        <v>3.1788</v>
+      </c>
+      <c r="F64">
+        <v>6.9688</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>7.45</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.003</v>
+      </c>
+      <c r="L64">
+        <v>-0.003</v>
+      </c>
+      <c r="M64">
+        <v>1.28016856</v>
+      </c>
+      <c r="N64">
+        <v>-1.28316856</v>
+      </c>
+      <c r="O64">
+        <v>-0.2438020264</v>
+      </c>
+      <c r="P64">
+        <v>-1.0393665336</v>
+      </c>
+      <c r="Q64">
+        <v>-1.0363665336</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.105228289649727</v>
+      </c>
+      <c r="T64">
+        <v>1.731150058977716</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.0004452538656315697</v>
+      </c>
+      <c r="W64">
+        <v>0.1837817931351165</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.002343441398060753</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1556754618106685</v>
+      </c>
+      <c r="C65">
+        <v>-3.916950900814477</v>
+      </c>
+      <c r="D65">
+        <v>3.164249099185523</v>
+      </c>
+      <c r="E65">
+        <v>3.2912</v>
+      </c>
+      <c r="F65">
+        <v>7.0812</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>7.45</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.003</v>
+      </c>
+      <c r="L65">
+        <v>-0.003</v>
+      </c>
+      <c r="M65">
+        <v>1.30081644</v>
+      </c>
+      <c r="N65">
+        <v>-1.30381644</v>
+      </c>
+      <c r="O65">
+        <v>-0.2477251236</v>
+      </c>
+      <c r="P65">
+        <v>-1.0560913164</v>
+      </c>
+      <c r="Q65">
+        <v>-1.0530913164</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1078209461267467</v>
+      </c>
+      <c r="T65">
+        <v>1.777937898409546</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.0004381863439548781</v>
+      </c>
+      <c r="W65">
+        <v>0.1837804948313845</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.002306243915551898</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1574194618106685</v>
+      </c>
+      <c r="C66">
+        <v>-4.066607655338968</v>
+      </c>
+      <c r="D66">
+        <v>3.126992344661032</v>
+      </c>
+      <c r="E66">
+        <v>3.4036</v>
+      </c>
+      <c r="F66">
+        <v>7.1936</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>7.45</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.003</v>
+      </c>
+      <c r="L66">
+        <v>-0.003</v>
+      </c>
+      <c r="M66">
+        <v>1.32146432</v>
+      </c>
+      <c r="N66">
+        <v>-1.32446432</v>
+      </c>
+      <c r="O66">
+        <v>-0.2516482208</v>
+      </c>
+      <c r="P66">
+        <v>-1.0728160992</v>
+      </c>
+      <c r="Q66">
+        <v>-1.0698160992</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1105576390747119</v>
+      </c>
+      <c r="T66">
+        <v>1.827325062254256</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.0004313396823305831</v>
+      </c>
+      <c r="W66">
+        <v>0.1837792370996441</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.002270208854371347</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1591634618106685</v>
+      </c>
+      <c r="C67">
+        <v>-4.215397276819743</v>
+      </c>
+      <c r="D67">
+        <v>3.090602723180257</v>
+      </c>
+      <c r="E67">
+        <v>3.516</v>
+      </c>
+      <c r="F67">
+        <v>7.306</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>7.45</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.003</v>
+      </c>
+      <c r="L67">
+        <v>-0.003</v>
+      </c>
+      <c r="M67">
+        <v>1.3421122</v>
+      </c>
+      <c r="N67">
+        <v>-1.3451122</v>
+      </c>
+      <c r="O67">
+        <v>-0.255571318</v>
+      </c>
+      <c r="P67">
+        <v>-1.089540882</v>
+      </c>
+      <c r="Q67">
+        <v>-1.086540882</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1134507144768465</v>
+      </c>
+      <c r="T67">
+        <v>1.879534349747235</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.0004247036872178049</v>
+      </c>
+      <c r="W67">
+        <v>0.1837780180673419</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.002235282564304164</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1609074618106685</v>
+      </c>
+      <c r="C68">
+        <v>-4.363349690169672</v>
+      </c>
+      <c r="D68">
+        <v>3.055050309830329</v>
+      </c>
+      <c r="E68">
+        <v>3.6284</v>
+      </c>
+      <c r="F68">
+        <v>7.4184</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>7.45</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.003</v>
+      </c>
+      <c r="L68">
+        <v>-0.003</v>
+      </c>
+      <c r="M68">
+        <v>1.36276008</v>
+      </c>
+      <c r="N68">
+        <v>-1.36576008</v>
+      </c>
+      <c r="O68">
+        <v>-0.2594944152</v>
+      </c>
+      <c r="P68">
+        <v>-1.1062656648</v>
+      </c>
+      <c r="Q68">
+        <v>-1.1032656648</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.116513970784989</v>
+      </c>
+      <c r="T68">
+        <v>1.934814771798624</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.00041826878286602</v>
+      </c>
+      <c r="W68">
+        <v>0.1837768359754125</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.002201414646663125</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1626514618106685</v>
+      </c>
+      <c r="C69">
+        <v>-4.510493459009139</v>
+      </c>
+      <c r="D69">
+        <v>3.020306540990862</v>
+      </c>
+      <c r="E69">
+        <v>3.7408</v>
+      </c>
+      <c r="F69">
+        <v>7.5308</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>7.45</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0.003</v>
+      </c>
+      <c r="L69">
+        <v>-0.003</v>
+      </c>
+      <c r="M69">
+        <v>1.38340796</v>
+      </c>
+      <c r="N69">
+        <v>-1.38640796</v>
+      </c>
+      <c r="O69">
+        <v>-0.2634175124</v>
+      </c>
+      <c r="P69">
+        <v>-1.1229904476</v>
+      </c>
+      <c r="Q69">
+        <v>-1.1199904476</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1197628789905948</v>
+      </c>
+      <c r="T69">
+        <v>1.993445522459189</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.0004120259652113032</v>
+      </c>
+      <c r="W69">
+        <v>0.1837756891698093</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.002168557711638375</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1643954618106685</v>
+      </c>
+      <c r="C70">
+        <v>-4.656855862202587</v>
+      </c>
+      <c r="D70">
+        <v>2.986344137797414</v>
+      </c>
+      <c r="E70">
+        <v>3.853200000000001</v>
+      </c>
+      <c r="F70">
+        <v>7.643200000000001</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>7.45</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0.003</v>
+      </c>
+      <c r="L70">
+        <v>-0.003</v>
+      </c>
+      <c r="M70">
+        <v>1.40405584</v>
+      </c>
+      <c r="N70">
+        <v>-1.40705584</v>
+      </c>
+      <c r="O70">
+        <v>-0.2673406096000001</v>
+      </c>
+      <c r="P70">
+        <v>-1.1397152304</v>
+      </c>
+      <c r="Q70">
+        <v>-1.1367152304</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1232148439590509</v>
+      </c>
+      <c r="T70">
+        <v>2.055740695036038</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.0004059667598405487</v>
+      </c>
+      <c r="W70">
+        <v>0.1837745760937827</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.002136667157055516</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1661394618106685</v>
+      </c>
+      <c r="C71">
+        <v>-4.80246296528871</v>
+      </c>
+      <c r="D71">
+        <v>2.953137034711292</v>
+      </c>
+      <c r="E71">
+        <v>3.965600000000001</v>
+      </c>
+      <c r="F71">
+        <v>7.755600000000001</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>7.45</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0.003</v>
+      </c>
+      <c r="L71">
+        <v>-0.003</v>
+      </c>
+      <c r="M71">
+        <v>1.42470372</v>
+      </c>
+      <c r="N71">
+        <v>-1.42770372</v>
+      </c>
+      <c r="O71">
+        <v>-0.2712637068000001</v>
+      </c>
+      <c r="P71">
+        <v>-1.1564400132</v>
+      </c>
+      <c r="Q71">
+        <v>-1.1534400132</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1268895163448267</v>
+      </c>
+      <c r="T71">
+        <v>2.122054911004943</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.0004000831836109755</v>
+      </c>
+      <c r="W71">
+        <v>0.1837734952808294</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.002105700966373414</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1678834618106685</v>
+      </c>
+      <c r="C72">
+        <v>-4.947339687197362</v>
+      </c>
+      <c r="D72">
+        <v>2.920660312802639</v>
+      </c>
+      <c r="E72">
+        <v>4.078000000000001</v>
+      </c>
+      <c r="F72">
+        <v>7.868000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>7.45</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0.003</v>
+      </c>
+      <c r="L72">
+        <v>-0.003</v>
+      </c>
+      <c r="M72">
+        <v>1.4453516</v>
+      </c>
+      <c r="N72">
+        <v>-1.4483516</v>
+      </c>
+      <c r="O72">
+        <v>-0.275186804</v>
+      </c>
+      <c r="P72">
+        <v>-1.173164796</v>
+      </c>
+      <c r="Q72">
+        <v>-1.170164796</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1308091668896542</v>
+      </c>
+      <c r="T72">
+        <v>2.192790074705107</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.0003943677095593903</v>
+      </c>
+      <c r="W72">
+        <v>0.1837724453482461</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.002075619523996819</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1696274618106685</v>
+      </c>
+      <c r="C73">
+        <v>-5.091509862612117</v>
+      </c>
+      <c r="D73">
+        <v>2.888890137387882</v>
+      </c>
+      <c r="E73">
+        <v>4.190399999999999</v>
+      </c>
+      <c r="F73">
+        <v>7.980399999999999</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>7.45</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0.003</v>
+      </c>
+      <c r="L73">
+        <v>-0.003</v>
+      </c>
+      <c r="M73">
+        <v>1.46599948</v>
+      </c>
+      <c r="N73">
+        <v>-1.46899948</v>
+      </c>
+      <c r="O73">
+        <v>-0.2791099012</v>
+      </c>
+      <c r="P73">
+        <v>-1.1898895788</v>
+      </c>
+      <c r="Q73">
+        <v>-1.1868895788</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1349991381617113</v>
+      </c>
+      <c r="T73">
+        <v>2.268403525557007</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.0003888132347768636</v>
+      </c>
+      <c r="W73">
+        <v>0.1837714249912285</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.002046385446193844</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1713714618106685</v>
+      </c>
+      <c r="C74">
+        <v>-5.234996300306436</v>
+      </c>
+      <c r="D74">
+        <v>2.857803699693564</v>
+      </c>
+      <c r="E74">
+        <v>4.3028</v>
+      </c>
+      <c r="F74">
+        <v>8.0928</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>7.45</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0.003</v>
+      </c>
+      <c r="L74">
+        <v>-0.003</v>
+      </c>
+      <c r="M74">
+        <v>1.48664736</v>
+      </c>
+      <c r="N74">
+        <v>-1.48964736</v>
+      </c>
+      <c r="O74">
+        <v>-0.2830329984</v>
+      </c>
+      <c r="P74">
+        <v>-1.2066143616</v>
+      </c>
+      <c r="Q74">
+        <v>-1.2036143616</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1394883930960581</v>
+      </c>
+      <c r="T74">
+        <v>2.349417937184043</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.0003834130509605183</v>
+      </c>
+      <c r="W74">
+        <v>0.1837704329774615</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.002017963426107938</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1731154618106685</v>
+      </c>
+      <c r="C75">
+        <v>-5.377820837753493</v>
+      </c>
+      <c r="D75">
+        <v>2.827379162246507</v>
+      </c>
+      <c r="E75">
+        <v>4.4152</v>
+      </c>
+      <c r="F75">
+        <v>8.2052</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>7.45</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.003</v>
+      </c>
+      <c r="L75">
+        <v>-0.003</v>
+      </c>
+      <c r="M75">
+        <v>1.50729524</v>
+      </c>
+      <c r="N75">
+        <v>-1.51029524</v>
+      </c>
+      <c r="O75">
+        <v>-0.2869560956</v>
+      </c>
+      <c r="P75">
+        <v>-1.2233391444</v>
+      </c>
+      <c r="Q75">
+        <v>-1.2203391444</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1443101854329491</v>
+      </c>
+      <c r="T75">
+        <v>2.436433416339007</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.0003781608173857167</v>
+      </c>
+      <c r="W75">
+        <v>0.1837694681421538</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.001990320091503683</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1748594618106685</v>
+      </c>
+      <c r="C76">
+        <v>-5.520004392284474</v>
+      </c>
+      <c r="D76">
+        <v>2.797595607715526</v>
+      </c>
+      <c r="E76">
+        <v>4.527600000000001</v>
+      </c>
+      <c r="F76">
+        <v>8.317600000000001</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>7.45</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0.003</v>
+      </c>
+      <c r="L76">
+        <v>-0.003</v>
+      </c>
+      <c r="M76">
+        <v>1.52794312</v>
+      </c>
+      <c r="N76">
+        <v>-1.53094312</v>
+      </c>
+      <c r="O76">
+        <v>-0.2908791928</v>
+      </c>
+      <c r="P76">
+        <v>-1.2400639272</v>
+      </c>
+      <c r="Q76">
+        <v>-1.2370639272</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.149502884872678</v>
+      </c>
+      <c r="T76">
+        <v>2.530142393890508</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.0003730505360696934</v>
+      </c>
+      <c r="W76">
+        <v>0.183768529383476</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.001963423874050907</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1766034618106685</v>
+      </c>
+      <c r="C77">
+        <v>-5.661567009047163</v>
+      </c>
+      <c r="D77">
+        <v>2.768432990952837</v>
+      </c>
+      <c r="E77">
+        <v>4.64</v>
+      </c>
+      <c r="F77">
+        <v>8.43</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>7.45</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.003</v>
+      </c>
+      <c r="L77">
+        <v>-0.003</v>
+      </c>
+      <c r="M77">
+        <v>1.548591</v>
+      </c>
+      <c r="N77">
+        <v>-1.551591</v>
+      </c>
+      <c r="O77">
+        <v>-0.29480229</v>
+      </c>
+      <c r="P77">
+        <v>-1.25678871</v>
+      </c>
+      <c r="Q77">
+        <v>-1.25378871</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1551110002675851</v>
+      </c>
+      <c r="T77">
+        <v>2.631348089646128</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.0003680765289220976</v>
+      </c>
+      <c r="W77">
+        <v>0.183767615658363</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.00193724488906355</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1783474618106685</v>
+      </c>
+      <c r="C78">
+        <v>-5.802527905995911</v>
+      </c>
+      <c r="D78">
+        <v>2.73987209400409</v>
+      </c>
+      <c r="E78">
+        <v>4.752400000000001</v>
+      </c>
+      <c r="F78">
+        <v>8.542400000000001</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>7.45</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.003</v>
+      </c>
+      <c r="L78">
+        <v>-0.003</v>
+      </c>
+      <c r="M78">
+        <v>1.56923888</v>
+      </c>
+      <c r="N78">
+        <v>-1.57223888</v>
+      </c>
+      <c r="O78">
+        <v>-0.2987253872</v>
+      </c>
+      <c r="P78">
+        <v>-1.2735134928</v>
+      </c>
+      <c r="Q78">
+        <v>-1.2705134928</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1611864586120678</v>
+      </c>
+      <c r="T78">
+        <v>2.740987593381384</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.0003632334166994384</v>
+      </c>
+      <c r="W78">
+        <v>0.1837667259786477</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.001911754824733825</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1800914618106685</v>
+      </c>
+      <c r="C79">
+        <v>-5.942905516125158</v>
+      </c>
+      <c r="D79">
+        <v>2.711894483874841</v>
+      </c>
+      <c r="E79">
+        <v>4.8648</v>
+      </c>
+      <c r="F79">
+        <v>8.6548</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>7.45</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.003</v>
+      </c>
+      <c r="L79">
+        <v>-0.003</v>
+      </c>
+      <c r="M79">
+        <v>1.58988676</v>
+      </c>
+      <c r="N79">
+        <v>-1.59288676</v>
+      </c>
+      <c r="O79">
+        <v>-0.3026484844</v>
+      </c>
+      <c r="P79">
+        <v>-1.2902382756</v>
+      </c>
+      <c r="Q79">
+        <v>-1.2872382756</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1677902176821577</v>
+      </c>
+      <c r="T79">
+        <v>2.860160967006661</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.0003585160995994457</v>
+      </c>
+      <c r="W79">
+        <v>0.1837658594074964</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.001886926839997027</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1818354618106685</v>
+      </c>
+      <c r="C80">
+        <v>-6.082717527141581</v>
+      </c>
+      <c r="D80">
+        <v>2.68448247285842</v>
+      </c>
+      <c r="E80">
+        <v>4.977200000000001</v>
+      </c>
+      <c r="F80">
+        <v>8.767200000000001</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>7.45</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.003</v>
+      </c>
+      <c r="L80">
+        <v>-0.003</v>
+      </c>
+      <c r="M80">
+        <v>1.61053464</v>
+      </c>
+      <c r="N80">
+        <v>-1.61353464</v>
+      </c>
+      <c r="O80">
+        <v>-0.3065715816</v>
+      </c>
+      <c r="P80">
+        <v>-1.3069630584</v>
+      </c>
+      <c r="Q80">
+        <v>-1.3039630584</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1749943184858921</v>
+      </c>
+      <c r="T80">
+        <v>2.990168283688782</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.0003539197393481707</v>
+      </c>
+      <c r="W80">
+        <v>0.1837650150561183</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.001862735470253396</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1835794618106685</v>
+      </c>
+      <c r="C81">
+        <v>-6.22198091875425</v>
+      </c>
+      <c r="D81">
+        <v>2.657619081245751</v>
+      </c>
+      <c r="E81">
+        <v>5.0896</v>
+      </c>
+      <c r="F81">
+        <v>8.8796</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>7.45</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.003</v>
+      </c>
+      <c r="L81">
+        <v>-0.003</v>
+      </c>
+      <c r="M81">
+        <v>1.63118252</v>
+      </c>
+      <c r="N81">
+        <v>-1.63418252</v>
+      </c>
+      <c r="O81">
+        <v>-0.3104946788</v>
+      </c>
+      <c r="P81">
+        <v>-1.3236878412</v>
+      </c>
+      <c r="Q81">
+        <v>-1.3206878412</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1828845241280775</v>
+      </c>
+      <c r="T81">
+        <v>3.132557249578725</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.000349439742647561</v>
+      </c>
+      <c r="W81">
+        <v>0.1837641920807244</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.001839156540250242</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1853234618106685</v>
+      </c>
+      <c r="C82">
+        <v>-6.360711997748014</v>
+      </c>
+      <c r="D82">
+        <v>2.631288002251986</v>
+      </c>
+      <c r="E82">
+        <v>5.202000000000001</v>
+      </c>
+      <c r="F82">
+        <v>8.992000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>7.45</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.003</v>
+      </c>
+      <c r="L82">
+        <v>-0.003</v>
+      </c>
+      <c r="M82">
+        <v>1.6518304</v>
+      </c>
+      <c r="N82">
+        <v>-1.6548304</v>
+      </c>
+      <c r="O82">
+        <v>-0.314417776</v>
+      </c>
+      <c r="P82">
+        <v>-1.340412624</v>
+      </c>
+      <c r="Q82">
+        <v>-1.337412624</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1915637503344814</v>
+      </c>
+      <c r="T82">
+        <v>3.289185112057661</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.0003450717458644665</v>
+      </c>
+      <c r="W82">
+        <v>0.1837633896797153</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.001816167083497078</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1870674618106685</v>
+      </c>
+      <c r="C83">
+        <v>-6.498926430992356</v>
+      </c>
+      <c r="D83">
+        <v>2.605473569007645</v>
+      </c>
+      <c r="E83">
+        <v>5.3144</v>
+      </c>
+      <c r="F83">
+        <v>9.1044</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>7.45</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.003</v>
+      </c>
+      <c r="L83">
+        <v>-0.003</v>
+      </c>
+      <c r="M83">
+        <v>1.67247828</v>
+      </c>
+      <c r="N83">
+        <v>-1.67547828</v>
+      </c>
+      <c r="O83">
+        <v>-0.3183408732</v>
+      </c>
+      <c r="P83">
+        <v>-1.3571374068</v>
+      </c>
+      <c r="Q83">
+        <v>-1.3541374068</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2011565792994541</v>
+      </c>
+      <c r="T83">
+        <v>3.462300117955433</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.0003408116008537941</v>
+      </c>
+      <c r="W83">
+        <v>0.1837626070910769</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.001793745267651525</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1888114618106685</v>
+      </c>
+      <c r="C84">
+        <v>-6.636639276526095</v>
+      </c>
+      <c r="D84">
+        <v>2.580160723473905</v>
+      </c>
+      <c r="E84">
+        <v>5.426800000000001</v>
+      </c>
+      <c r="F84">
+        <v>9.216800000000001</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>7.45</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.003</v>
+      </c>
+      <c r="L84">
+        <v>-0.003</v>
+      </c>
+      <c r="M84">
+        <v>1.69312616</v>
+      </c>
+      <c r="N84">
+        <v>-1.69612616</v>
+      </c>
+      <c r="O84">
+        <v>-0.3222639704</v>
+      </c>
+      <c r="P84">
+        <v>-1.3738621896</v>
+      </c>
+      <c r="Q84">
+        <v>-1.3708621896</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2118152781494237</v>
+      </c>
+      <c r="T84">
+        <v>3.654650124508512</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.0003366553618189916</v>
+      </c>
+      <c r="W84">
+        <v>0.1837618435899661</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.001771870325363079</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1905554618106685</v>
+      </c>
+      <c r="C85">
+        <v>-6.773865012847571</v>
+      </c>
+      <c r="D85">
+        <v>2.55533498715243</v>
+      </c>
+      <c r="E85">
+        <v>5.5392</v>
+      </c>
+      <c r="F85">
+        <v>9.3292</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>7.45</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.003</v>
+      </c>
+      <c r="L85">
+        <v>-0.003</v>
+      </c>
+      <c r="M85">
+        <v>1.71377404</v>
+      </c>
+      <c r="N85">
+        <v>-1.71677404</v>
+      </c>
+      <c r="O85">
+        <v>-0.3261870676</v>
+      </c>
+      <c r="P85">
+        <v>-1.3905869724</v>
+      </c>
+      <c r="Q85">
+        <v>-1.3875869724</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2237279415699782</v>
+      </c>
+      <c r="T85">
+        <v>3.869629543597249</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.0003325992731223773</v>
+      </c>
+      <c r="W85">
+        <v>0.1837610984864726</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.001750522490117756</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1922994618106685</v>
+      </c>
+      <c r="C86">
+        <v>-6.910617566529964</v>
+      </c>
+      <c r="D86">
+        <v>2.530982433470036</v>
+      </c>
+      <c r="E86">
+        <v>5.651599999999999</v>
+      </c>
+      <c r="F86">
+        <v>9.441599999999999</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>7.45</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.003</v>
+      </c>
+      <c r="L86">
+        <v>-0.003</v>
+      </c>
+      <c r="M86">
+        <v>1.73442192</v>
+      </c>
+      <c r="N86">
+        <v>-1.73742192</v>
+      </c>
+      <c r="O86">
+        <v>-0.3301101648</v>
+      </c>
+      <c r="P86">
+        <v>-1.4073117552</v>
+      </c>
+      <c r="Q86">
+        <v>-1.4043117552</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2371296879181017</v>
+      </c>
+      <c r="T86">
+        <v>4.111481390072075</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.0003286397579661586</v>
+      </c>
+      <c r="W86">
+        <v>0.1837603711235384</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.001729682936663979</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1940434618106685</v>
+      </c>
+      <c r="C87">
+        <v>-7.04691033827252</v>
+      </c>
+      <c r="D87">
+        <v>2.507089661727481</v>
+      </c>
+      <c r="E87">
+        <v>5.764</v>
+      </c>
+      <c r="F87">
+        <v>9.554</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>7.45</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.003</v>
+      </c>
+      <c r="L87">
+        <v>-0.003</v>
+      </c>
+      <c r="M87">
+        <v>1.7550698</v>
+      </c>
+      <c r="N87">
+        <v>-1.7580698</v>
+      </c>
+      <c r="O87">
+        <v>-0.334033262</v>
+      </c>
+      <c r="P87">
+        <v>-1.424036538</v>
+      </c>
+      <c r="Q87">
+        <v>-1.421036538</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2523183337793084</v>
+      </c>
+      <c r="T87">
+        <v>4.385580149410213</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.000324773407872439</v>
+      </c>
+      <c r="W87">
+        <v>0.1837596608750262</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.001709333725644413</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1957874618106685</v>
+      </c>
+      <c r="C88">
+        <v>-7.18275622748995</v>
+      </c>
+      <c r="D88">
+        <v>2.48364377251005</v>
+      </c>
+      <c r="E88">
+        <v>5.876399999999999</v>
+      </c>
+      <c r="F88">
+        <v>9.666399999999999</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>7.45</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.003</v>
+      </c>
+      <c r="L88">
+        <v>-0.003</v>
+      </c>
+      <c r="M88">
+        <v>1.77571768</v>
+      </c>
+      <c r="N88">
+        <v>-1.77871768</v>
+      </c>
+      <c r="O88">
+        <v>-0.3379563591999999</v>
+      </c>
+      <c r="P88">
+        <v>-1.4407613208</v>
+      </c>
+      <c r="Q88">
+        <v>-1.4377613208</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2696767861921162</v>
+      </c>
+      <c r="T88">
+        <v>4.698835874368086</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.0003209969728971782</v>
+      </c>
+      <c r="W88">
+        <v>0.1837589671439212</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.001689457752090284</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1975314618106685</v>
+      </c>
+      <c r="C89">
+        <v>-7.31816765553493</v>
+      </c>
+      <c r="D89">
+        <v>2.46063234446507</v>
+      </c>
+      <c r="E89">
+        <v>5.9888</v>
+      </c>
+      <c r="F89">
+        <v>9.7788</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>7.45</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.003</v>
+      </c>
+      <c r="L89">
+        <v>-0.003</v>
+      </c>
+      <c r="M89">
+        <v>1.79636556</v>
+      </c>
+      <c r="N89">
+        <v>-1.79936556</v>
+      </c>
+      <c r="O89">
+        <v>-0.3418794564</v>
+      </c>
+      <c r="P89">
+        <v>-1.4574861036</v>
+      </c>
+      <c r="Q89">
+        <v>-1.4544861036</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2897057697453559</v>
+      </c>
+      <c r="T89">
+        <v>5.060284787781016</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.0003173073525190496</v>
+      </c>
+      <c r="W89">
+        <v>0.1837582893606578</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.001670038697468623</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1992754618106685</v>
+      </c>
+      <c r="C90">
+        <v>-7.453156587641454</v>
+      </c>
+      <c r="D90">
+        <v>2.438043412358545</v>
+      </c>
+      <c r="E90">
+        <v>6.1012</v>
+      </c>
+      <c r="F90">
+        <v>9.8912</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>7.45</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0.003</v>
+      </c>
+      <c r="L90">
+        <v>-0.003</v>
+      </c>
+      <c r="M90">
+        <v>1.81701344</v>
+      </c>
+      <c r="N90">
+        <v>-1.82001344</v>
+      </c>
+      <c r="O90">
+        <v>-0.3458025536</v>
+      </c>
+      <c r="P90">
+        <v>-1.4742108864</v>
+      </c>
+      <c r="Q90">
+        <v>-1.4712108864</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3130729172241355</v>
+      </c>
+      <c r="T90">
+        <v>5.481975186762767</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.000313701587149515</v>
+      </c>
+      <c r="W90">
+        <v>0.1837576269815594</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.001651060984997343</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2010194618106685</v>
+      </c>
+      <c r="C91">
+        <v>-7.58773455367055</v>
+      </c>
+      <c r="D91">
+        <v>2.41586544632945</v>
+      </c>
+      <c r="E91">
+        <v>6.2136</v>
+      </c>
+      <c r="F91">
+        <v>10.0036</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>7.45</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0.003</v>
+      </c>
+      <c r="L91">
+        <v>-0.003</v>
+      </c>
+      <c r="M91">
+        <v>1.83766132</v>
+      </c>
+      <c r="N91">
+        <v>-1.84066132</v>
+      </c>
+      <c r="O91">
+        <v>-0.3497256508</v>
+      </c>
+      <c r="P91">
+        <v>-1.4909356692</v>
+      </c>
+      <c r="Q91">
+        <v>-1.4879356692</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3406886369717843</v>
+      </c>
+      <c r="T91">
+        <v>5.980336567377565</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.0003101768502152508</v>
+      </c>
+      <c r="W91">
+        <v>0.1837569794873845</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.001632509737975019</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2027634618106685</v>
+      </c>
+      <c r="C92">
+        <v>-7.721912667733874</v>
+      </c>
+      <c r="D92">
+        <v>2.394087332266126</v>
+      </c>
+      <c r="E92">
+        <v>6.326</v>
+      </c>
+      <c r="F92">
+        <v>10.116</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>7.45</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0.003</v>
+      </c>
+      <c r="L92">
+        <v>-0.003</v>
+      </c>
+      <c r="M92">
+        <v>1.8583092</v>
+      </c>
+      <c r="N92">
+        <v>-1.8613092</v>
+      </c>
+      <c r="O92">
+        <v>-0.353648748</v>
+      </c>
+      <c r="P92">
+        <v>-1.507660452</v>
+      </c>
+      <c r="Q92">
+        <v>-1.504660452</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3738275006689628</v>
+      </c>
+      <c r="T92">
+        <v>6.578370224115322</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.0003067304407684147</v>
+      </c>
+      <c r="W92">
+        <v>0.1837563463819692</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.001614370740886439</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2045074618106685</v>
+      </c>
+      <c r="C93">
+        <v>-7.855701646765434</v>
+      </c>
+      <c r="D93">
+        <v>2.372698353234567</v>
+      </c>
+      <c r="E93">
+        <v>6.438400000000001</v>
+      </c>
+      <c r="F93">
+        <v>10.2284</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>7.45</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0.003</v>
+      </c>
+      <c r="L93">
+        <v>-0.003</v>
+      </c>
+      <c r="M93">
+        <v>1.87895708</v>
+      </c>
+      <c r="N93">
+        <v>-1.88195708</v>
+      </c>
+      <c r="O93">
+        <v>-0.3575718452</v>
+      </c>
+      <c r="P93">
+        <v>-1.5243852348</v>
+      </c>
+      <c r="Q93">
+        <v>-1.5213852348</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4143305562988475</v>
+      </c>
+      <c r="T93">
+        <v>7.309300249017025</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.0003033597765841463</v>
+      </c>
+      <c r="W93">
+        <v>0.1837557271909585</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.001596630403074339</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2062514618106685</v>
+      </c>
+      <c r="C94">
+        <v>-7.989111828106557</v>
+      </c>
+      <c r="D94">
+        <v>2.351688171893443</v>
+      </c>
+      <c r="E94">
+        <v>6.5508</v>
+      </c>
+      <c r="F94">
+        <v>10.3408</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>7.45</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0.003</v>
+      </c>
+      <c r="L94">
+        <v>-0.003</v>
+      </c>
+      <c r="M94">
+        <v>1.89960496</v>
+      </c>
+      <c r="N94">
+        <v>-1.90260496</v>
+      </c>
+      <c r="O94">
+        <v>-0.3614949424</v>
+      </c>
+      <c r="P94">
+        <v>-1.5411100176</v>
+      </c>
+      <c r="Q94">
+        <v>-1.5381100176</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4649593758362036</v>
+      </c>
+      <c r="T94">
+        <v>8.222962780144156</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.0003000623877082317</v>
+      </c>
+      <c r="W94">
+        <v>0.183755121460622</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.001579275724780116</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2079954618106685</v>
+      </c>
+      <c r="C95">
+        <v>-8.1221531861648</v>
+      </c>
+      <c r="D95">
+        <v>2.3310468138352</v>
+      </c>
+      <c r="E95">
+        <v>6.663200000000001</v>
+      </c>
+      <c r="F95">
+        <v>10.4532</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>7.45</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0.003</v>
+      </c>
+      <c r="L95">
+        <v>-0.003</v>
+      </c>
+      <c r="M95">
+        <v>1.92025284</v>
+      </c>
+      <c r="N95">
+        <v>-1.92325284</v>
+      </c>
+      <c r="O95">
+        <v>-0.3654180396</v>
+      </c>
+      <c r="P95">
+        <v>-1.5578348004</v>
+      </c>
+      <c r="Q95">
+        <v>-1.5548348004</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5300535723842327</v>
+      </c>
+      <c r="T95">
+        <v>9.397671748736178</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.0002968359104210464</v>
+      </c>
+      <c r="W95">
+        <v>0.1837545287567443</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.001562294265373909</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2097394618106685</v>
+      </c>
+      <c r="C96">
+        <v>-8.254835348203176</v>
+      </c>
+      <c r="D96">
+        <v>2.310764651796825</v>
+      </c>
+      <c r="E96">
+        <v>6.775600000000002</v>
+      </c>
+      <c r="F96">
+        <v>10.5656</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>7.45</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0.003</v>
+      </c>
+      <c r="L96">
+        <v>-0.003</v>
+      </c>
+      <c r="M96">
+        <v>1.94090072</v>
+      </c>
+      <c r="N96">
+        <v>-1.94390072</v>
+      </c>
+      <c r="O96">
+        <v>-0.3693411368</v>
+      </c>
+      <c r="P96">
+        <v>-1.5745595832</v>
+      </c>
+      <c r="Q96">
+        <v>-1.5715595832</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6168458344482717</v>
+      </c>
+      <c r="T96">
+        <v>10.96395037352555</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.0002936780815867799</v>
+      </c>
+      <c r="W96">
+        <v>0.1837539486635875</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.001545674113614615</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2114834618106685</v>
+      </c>
+      <c r="C97">
+        <v>-8.387167609312186</v>
+      </c>
+      <c r="D97">
+        <v>2.290832390687815</v>
+      </c>
+      <c r="E97">
+        <v>6.888000000000001</v>
+      </c>
+      <c r="F97">
+        <v>10.678</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>7.45</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0.003</v>
+      </c>
+      <c r="L97">
+        <v>-0.003</v>
+      </c>
+      <c r="M97">
+        <v>1.9615486</v>
+      </c>
+      <c r="N97">
+        <v>-1.9645486</v>
+      </c>
+      <c r="O97">
+        <v>-0.373264234</v>
+      </c>
+      <c r="P97">
+        <v>-1.591284366</v>
+      </c>
+      <c r="Q97">
+        <v>-1.588284366</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7383550013379263</v>
+      </c>
+      <c r="T97">
+        <v>13.15674044823066</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.0002905867333595507</v>
+      </c>
+      <c r="W97">
+        <v>0.1837533807829182</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.00152940385978706</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2132274618106685</v>
+      </c>
+      <c r="C98">
+        <v>-8.519158946613626</v>
+      </c>
+      <c r="D98">
+        <v>2.271241053386375</v>
+      </c>
+      <c r="E98">
+        <v>7.0004</v>
+      </c>
+      <c r="F98">
+        <v>10.7904</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>7.45</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0.003</v>
+      </c>
+      <c r="L98">
+        <v>-0.003</v>
+      </c>
+      <c r="M98">
+        <v>1.98219648</v>
+      </c>
+      <c r="N98">
+        <v>-1.98519648</v>
+      </c>
+      <c r="O98">
+        <v>-0.3771873312</v>
+      </c>
+      <c r="P98">
+        <v>-1.6080091488</v>
+      </c>
+      <c r="Q98">
+        <v>-1.6050091488</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9206187516724059</v>
+      </c>
+      <c r="T98">
+        <v>16.44592556028829</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.0002875597882203888</v>
+      </c>
+      <c r="W98">
+        <v>0.1837528247330961</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.001513472569580898</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2149714618106685</v>
+      </c>
+      <c r="C99">
+        <v>-8.650818032741732</v>
+      </c>
+      <c r="D99">
+        <v>2.251981967258267</v>
+      </c>
+      <c r="E99">
+        <v>7.112799999999999</v>
+      </c>
+      <c r="F99">
+        <v>10.9028</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>7.45</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0.003</v>
+      </c>
+      <c r="L99">
+        <v>-0.003</v>
+      </c>
+      <c r="M99">
+        <v>2.00284436</v>
+      </c>
+      <c r="N99">
+        <v>-2.00584436</v>
+      </c>
+      <c r="O99">
+        <v>-0.3811104284</v>
+      </c>
+      <c r="P99">
+        <v>-1.6247339316</v>
+      </c>
+      <c r="Q99">
+        <v>-1.6217339316</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.224391668896541</v>
+      </c>
+      <c r="T99">
+        <v>21.92790074705105</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.0002845952543212095</v>
+      </c>
+      <c r="W99">
+        <v>0.1837522801482188</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.001497869759585324</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2167154618106685</v>
+      </c>
+      <c r="C100">
+        <v>-8.782153248644217</v>
+      </c>
+      <c r="D100">
+        <v>2.233046751355782</v>
+      </c>
+      <c r="E100">
+        <v>7.2252</v>
+      </c>
+      <c r="F100">
+        <v>11.0152</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>7.45</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0.003</v>
+      </c>
+      <c r="L100">
+        <v>-0.003</v>
+      </c>
+      <c r="M100">
+        <v>2.02349224</v>
+      </c>
+      <c r="N100">
+        <v>-2.02649224</v>
+      </c>
+      <c r="O100">
+        <v>-0.3850335256</v>
+      </c>
+      <c r="P100">
+        <v>-1.6414587144</v>
+      </c>
+      <c r="Q100">
+        <v>-1.6384587144</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.831937503344812</v>
+      </c>
+      <c r="T100">
+        <v>32.89185112057658</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.0002816912211138502</v>
+      </c>
+      <c r="W100">
+        <v>0.1837517466773186</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.001482585374283474</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2184594618106685</v>
+      </c>
+      <c r="C101">
+        <v>-8.913172695742862</v>
+      </c>
+      <c r="D101">
+        <v>2.214427304257137</v>
+      </c>
+      <c r="E101">
+        <v>7.337599999999999</v>
+      </c>
+      <c r="F101">
+        <v>11.1276</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>7.45</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0.003</v>
+      </c>
+      <c r="L101">
+        <v>-0.003</v>
+      </c>
+      <c r="M101">
+        <v>2.04414012</v>
+      </c>
+      <c r="N101">
+        <v>-2.04714012</v>
+      </c>
+      <c r="O101">
+        <v>-0.3889566228</v>
+      </c>
+      <c r="P101">
+        <v>-1.6581834972</v>
+      </c>
+      <c r="Q101">
+        <v>-1.6551834972</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.654575006689625</v>
+      </c>
+      <c r="T101">
+        <v>65.78370224115316</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.0002788458552440134</v>
+      </c>
+      <c r="W101">
+        <v>0.1837512239836083</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.001467609764442157</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
